--- a/documentation/Requerimientos/Requirements-template-ES2.xlsx
+++ b/documentation/Requerimientos/Requirements-template-ES2.xlsx
@@ -1,20 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Esteban Cardona\Documents\Octavo Semestre\Procesos y diseño de software\Proyecto\Segunda entrega\documentation\Requerimientos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19356" windowHeight="8592"/>
-  </bookViews>
   <sheets>
-    <sheet name="Definición de requerimientos" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="Definición de requerimientos" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mgoLLFHiKsMlLzXacb/RGaWjiScMg=="/>
@@ -24,70 +16,49 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="G16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="G16">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>- Aprobado
+        <t xml:space="preserve">- Aprobado
 - En espera
 - Rechazado
 ======</t>
-        </r>
       </text>
     </comment>
-    <comment ref="H16" authorId="0" shapeId="0">
+    <comment authorId="0" ref="H16">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>- Alta
+        <t xml:space="preserve">- Alta
 - Media
 - Baja
 ======</t>
-        </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment authorId="0" ref="D41">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>======
+        <t xml:space="preserve">======
 ID#AAAAKomjngE
 tc={37FE004F-3490-4B39-BF45-5F9CF006442C}    (2020-11-04 14:28:33)
 [Comentario encadenado]
 Su versión de Excel le permite leer este comentario encadenado; sin embargo, las ediciones que se apliquen se quitarán si el archivo se abre en una versión más reciente de Excel. Más información: https://go.microsoft.com/fwlink/?linkid=870924
 Comentario:
     Tambien si esta en periodo de cuarentena.</t>
-        </r>
       </text>
     </comment>
   </commentList>
   <extLst>
-    <ext xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhzqfcI7mKAKSCgJUxr5e6Q6yFafQ=="/>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgCtHtUxOGJ7ij+1X9Hc23C9/7KJA=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="292">
   <si>
     <t>EP</t>
   </si>
@@ -218,94 +189,109 @@
     <t>Aceptado</t>
   </si>
   <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>RF-General</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>RF-General-02</t>
+  </si>
+  <si>
+    <t>Cuenta administrador disponible</t>
+  </si>
+  <si>
+    <t>El sistema deberá contar con una cuenta de usuario inicial de tipo administrador</t>
+  </si>
+  <si>
+    <t>El administrador inicial será el responsable de configurar aspectos parametrizables del sistema y crear otras cuentas de administrador</t>
+  </si>
+  <si>
+    <t>RF-General-03</t>
+  </si>
+  <si>
+    <t>Rol de ciudadano</t>
+  </si>
+  <si>
+    <t>Santiago Melo</t>
+  </si>
+  <si>
+    <t>El sistema deberá contar con usuario de tipo ciudadano</t>
+  </si>
+  <si>
+    <t>RF-General-04</t>
+  </si>
+  <si>
+    <t>Rol de sitio publico</t>
+  </si>
+  <si>
+    <t>El sistema deberá contar con usuario de tipo establecimiento público</t>
+  </si>
+  <si>
+    <t>RF-General-05</t>
+  </si>
+  <si>
+    <t>Rol de entidad de salud</t>
+  </si>
+  <si>
+    <t>Juan Esteban Cardona</t>
+  </si>
+  <si>
+    <t>El sistema deberá contar con usuario de tipo entidad de salud</t>
+  </si>
+  <si>
+    <t>RF-General-06</t>
+  </si>
+  <si>
+    <t>Login de usuarios</t>
+  </si>
+  <si>
+    <t>El sistema deberá contar con un módulo de login para otorgarle acceso a los usuarios registrados.</t>
+  </si>
+  <si>
+    <t>Otorgar accesos en el sistema de acuerdo con el perfil respectivo.</t>
+  </si>
+  <si>
+    <t>RF-General-07</t>
+  </si>
+  <si>
+    <t>Información de municipios</t>
+  </si>
+  <si>
+    <t>El sistema deberá tener información real de los municipios de Colombia, rescatados del DANE.</t>
+  </si>
+  <si>
+    <t>Se debe poder tener parametrizados los municipios para el registro de usuarios</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>RF-General-08</t>
+  </si>
+  <si>
+    <t>Historial de ingreso</t>
+  </si>
+  <si>
+    <t>El sistema deberá guardar el historial de todas las visitas que haya hecho cada ciudadano registrado en los diferentes EP</t>
+  </si>
+  <si>
+    <t>Llevar control sobre el aforo de los distintos EP y llevar registro sobre las visitas que haya hecho cada ciudadano registrado en el sistema.</t>
+  </si>
+  <si>
+    <t>7,8,8.1,8.2,17</t>
+  </si>
+  <si>
     <t>Alta</t>
   </si>
   <si>
-    <t>RF-General</t>
-  </si>
-  <si>
-    <t>RF-General-02</t>
-  </si>
-  <si>
-    <t>Cuenta administrador disponible</t>
-  </si>
-  <si>
-    <t>El sistema deberá contar con una cuenta de usuario inicial de tipo administrador</t>
-  </si>
-  <si>
-    <t>El administrador inicial será el responsable de configurar aspectos parametrizables del sistema y crear otras cuentas de administrador</t>
-  </si>
-  <si>
-    <t>RF-General-03</t>
-  </si>
-  <si>
-    <t>Rol de ciudadano</t>
-  </si>
-  <si>
-    <t>Santiago Melo</t>
-  </si>
-  <si>
-    <t>El sistema deberá contar con usuario de tipo ciudadano</t>
-  </si>
-  <si>
-    <t>RF-General-04</t>
-  </si>
-  <si>
-    <t>Rol de sitio publico</t>
-  </si>
-  <si>
-    <t>El sistema deberá contar con usuario de tipo establecimiento público</t>
-  </si>
-  <si>
-    <t>RF-General-05</t>
-  </si>
-  <si>
-    <t>Rol de entidad de salud</t>
-  </si>
-  <si>
-    <t>Juan Esteban Cardona</t>
-  </si>
-  <si>
-    <t>El sistema deberá contar con usuario de tipo entidad de salud</t>
-  </si>
-  <si>
-    <t>RF-General-06</t>
-  </si>
-  <si>
-    <t>Login de usuarios</t>
-  </si>
-  <si>
-    <t>El sistema deberá contar con un módulo de login para otorgarle acceso a los usuarios registrados.</t>
-  </si>
-  <si>
-    <t>Otorgar accesos en el sistema de acuerdo con el perfil respectivo.</t>
-  </si>
-  <si>
-    <t>RF-General-07</t>
-  </si>
-  <si>
-    <t>Información de municipios</t>
-  </si>
-  <si>
-    <t>El sistema deberá tener información real de los municipios de Colombia, rescatados del DANE.</t>
-  </si>
-  <si>
-    <t>Se debe poder tener parametrizados los municipios para el registro de usuarios</t>
-  </si>
-  <si>
-    <t>RF-General-08</t>
-  </si>
-  <si>
-    <t>Historial de ingreso</t>
-  </si>
-  <si>
-    <t>El sistema deberá guardar el historial de todas las visitas que haya hecho cada ciudadano registrado en los diferentes EP</t>
-  </si>
-  <si>
-    <t>Llevar control sobre el aforo de los distintos EP y llevar registro sobre las visitas que haya hecho cada ciudadano registrado en el sistema.</t>
-  </si>
-  <si>
-    <t>7,8,8.1,8.2,17</t>
+    <t>M</t>
   </si>
   <si>
     <t>RF-General-09</t>
@@ -374,7 +360,7 @@
     <t>Para poder visualizar esta información sin necesidad de tener conexión a internet.</t>
   </si>
   <si>
-    <t>LLENAR</t>
+    <t>5,35, 7,8,8.1,8.2,17</t>
   </si>
   <si>
     <t>RF-General-14</t>
@@ -386,6 +372,9 @@
     <t>El sistema deberá permitir al administrador y entidades de salud exportar a excel o PDF el historial de exámenes que estén viendo en un momento dado en la página web.</t>
   </si>
   <si>
+    <t>5,36, 9,10,10.1,10.2,10.3,10.4,26</t>
+  </si>
+  <si>
     <t>RF-Ciudadano-01</t>
   </si>
   <si>
@@ -416,9 +405,6 @@
     <t>Puede haber información provista por la entidad de salud antes de la creación de la cuenta de ciudadano o si este ya se encuentra registrado también debe asociarse para visualizar un posible periodo de cuarentena.</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>RF-Ciudadano-03</t>
   </si>
   <si>
@@ -840,9 +826,6 @@
   </si>
   <si>
     <t>Para que no se distorsionen las imágenes o algún menú en la página.</t>
-  </si>
-  <si>
-    <t>Baja</t>
   </si>
   <si>
     <t>RNF</t>
@@ -957,32 +940,37 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="6">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -992,7 +980,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1044,19 +1032,12 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1071,137 +1052,144 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="42">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="1" fillId="8" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1391,35 +1379,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1022"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.69921875" customWidth="1"/>
-    <col min="2" max="2" width="28.8984375" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="38.3984375" customWidth="1"/>
-    <col min="5" max="5" width="37.09765625" customWidth="1"/>
-    <col min="6" max="6" width="26.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
-    <col min="8" max="9" width="15.3984375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="26" width="9.3984375" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="18.75"/>
+    <col customWidth="1" min="2" max="2" width="28.88"/>
+    <col customWidth="1" min="3" max="3" width="14.0"/>
+    <col customWidth="1" min="4" max="4" width="38.38"/>
+    <col customWidth="1" min="5" max="5" width="37.13"/>
+    <col customWidth="1" min="6" max="6" width="26.25"/>
+    <col customWidth="1" min="7" max="7" width="14.5"/>
+    <col customWidth="1" min="8" max="9" width="15.38"/>
+    <col customWidth="1" min="10" max="10" width="14.0"/>
+    <col customWidth="1" min="11" max="26" width="9.38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1416,7 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" ht="14.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1425,7 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" ht="14.25" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1445,7 +1433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1454,7 +1442,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -1463,7 +1451,7 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
@@ -1472,7 +1460,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="12" t="s">
         <v>12</v>
       </c>
@@ -1481,7 +1469,7 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="14" t="s">
         <v>14</v>
       </c>
@@ -1490,7 +1478,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="16" t="s">
         <v>16</v>
       </c>
@@ -1499,7 +1487,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>18</v>
       </c>
@@ -1507,7 +1495,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" ht="14.25" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>20</v>
       </c>
@@ -1515,7 +1503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" ht="14.25" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>22</v>
       </c>
@@ -1523,7 +1511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" ht="14.25" customHeight="1">
       <c r="A13" s="18" t="s">
         <v>24</v>
       </c>
@@ -1531,16 +1519,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" ht="14.25" customHeight="1">
       <c r="A14" s="18">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" ht="14.25" customHeight="1"/>
+    <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="20" t="s">
         <v>27</v>
       </c>
@@ -1572,7 +1560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="75.0" customHeight="1">
       <c r="A17" s="23" t="s">
         <v>37</v>
       </c>
@@ -1594,54 +1582,60 @@
       <c r="G17" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I17" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" ht="75.0" customHeight="1">
       <c r="A18" s="23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I18" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" ht="75.0" customHeight="1">
       <c r="A19" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>41</v>
@@ -1652,25 +1646,28 @@
       <c r="G19" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I19" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" ht="75.0" customHeight="1">
       <c r="A20" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>41</v>
@@ -1681,25 +1678,28 @@
       <c r="G20" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H20" s="26" t="s">
+      <c r="H20" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J20" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" ht="75.0" customHeight="1">
       <c r="A21" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>41</v>
@@ -1710,1506 +1710,1650 @@
       <c r="G21" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="26" t="s">
+      <c r="H21" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J21" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" ht="75.0" customHeight="1">
       <c r="A22" s="23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F22" s="25">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G22" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H22" s="26" t="s">
+      <c r="H22" s="27" t="s">
         <v>43</v>
       </c>
       <c r="I22" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J22" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" ht="75.0" customHeight="1">
       <c r="A23" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H23" s="26" t="s">
-        <v>43</v>
+      <c r="H23" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="I23" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" ht="75.0" customHeight="1">
       <c r="A24" s="23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G24" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I24" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" ht="75.0" customHeight="1">
       <c r="A25" s="23" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G25" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="I25" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J25" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" ht="75.0" customHeight="1">
       <c r="A26" s="23" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C26" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F26" s="25">
-        <v>5</v>
+        <v>5.0</v>
       </c>
       <c r="G26" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>43</v>
+      <c r="H26" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="I26" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J26" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" ht="88.5" customHeight="1">
       <c r="A27" s="23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F27" s="25">
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="G27" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>43</v>
+      <c r="H27" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="I27" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J27" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" ht="75.0" customHeight="1">
       <c r="A28" s="23" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G28" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H28" s="26" t="s">
-        <v>43</v>
+      <c r="H28" s="27" t="s">
+        <v>69</v>
       </c>
       <c r="I28" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F29" s="25"/>
-      <c r="G29" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" s="26"/>
+      <c r="J28" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" ht="101.25" customHeight="1">
+      <c r="A29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="C29" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H29" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="I29" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C30" s="28" t="s">
+      <c r="J29" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" ht="101.25" customHeight="1">
+      <c r="A30" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="D30" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="F30" s="25"/>
-      <c r="G30" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H30" s="26"/>
+      <c r="D30" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="I30" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
-        <v>99</v>
+      <c r="J30" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" ht="101.25" customHeight="1">
+      <c r="A31" s="32" t="s">
+        <v>105</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="F31" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G31" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="I31" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J31" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" ht="75.0" customHeight="1">
+      <c r="A32" s="32" t="s">
+        <v>111</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>110</v>
       </c>
+      <c r="J32" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" ht="75.0" customHeight="1">
+      <c r="A33" s="32" t="s">
+        <v>115</v>
+      </c>
       <c r="B33" s="24" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F33" s="25">
-        <v>18</v>
+        <v>18.0</v>
       </c>
       <c r="G33" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>114</v>
+        <v>76</v>
+      </c>
+      <c r="I33" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J33" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" ht="75.0" customHeight="1">
+      <c r="A34" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C34" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="F34" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G34" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="26" t="s">
+      <c r="H34" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="30" t="s">
-        <v>119</v>
+      <c r="I34" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J34" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" ht="75.0" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>124</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C35" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="G35" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31" t="s">
-        <v>123</v>
+      <c r="I35" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" ht="108.0" customHeight="1">
+      <c r="A36" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F36" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G36" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H36" s="26" t="s">
+      <c r="H36" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I36" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="31" t="s">
-        <v>128</v>
+      <c r="I36" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J36" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" ht="75.0" customHeight="1">
+      <c r="A37" s="33" t="s">
+        <v>133</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C37" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F37" s="25" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G37" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
-        <v>133</v>
+        <v>76</v>
+      </c>
+      <c r="I37" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" ht="75.0" customHeight="1">
+      <c r="A38" s="33" t="s">
+        <v>138</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="32" t="s">
-        <v>135</v>
+        <v>52</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>140</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F38" s="25" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G38" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
-        <v>138</v>
+        <v>76</v>
+      </c>
+      <c r="I38" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J38" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" ht="75.0" customHeight="1">
+      <c r="A39" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="32" t="s">
-        <v>140</v>
+        <v>52</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>145</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F39" s="25" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G39" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="31" t="s">
-        <v>143</v>
+        <v>76</v>
+      </c>
+      <c r="I39" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J39" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" ht="75.0" customHeight="1">
+      <c r="A40" s="33" t="s">
+        <v>148</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="32" t="s">
-        <v>145</v>
+        <v>59</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>150</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F40" s="25">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="G40" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="31" t="s">
-        <v>147</v>
+        <v>76</v>
+      </c>
+      <c r="I40" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J40" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" ht="75.0" customHeight="1">
+      <c r="A41" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="B41" s="24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="32" t="s">
-        <v>149</v>
+        <v>59</v>
+      </c>
+      <c r="D41" s="34" t="s">
+        <v>154</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="F41" s="25">
-        <v>27</v>
+        <v>27.0</v>
       </c>
       <c r="G41" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H41" s="26" t="s">
+      <c r="H41" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I41" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31" t="s">
-        <v>151</v>
+      <c r="I41" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J41" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" ht="75.0" customHeight="1">
+      <c r="A42" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>153</v>
+        <v>59</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>158</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="G42" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I42" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="31" t="s">
-        <v>156</v>
+      <c r="I42" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J42" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" ht="75.0" customHeight="1">
+      <c r="A43" s="33" t="s">
+        <v>161</v>
       </c>
       <c r="B43" s="24" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C43" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F43" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G43" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="31" t="s">
-        <v>160</v>
+        <v>43</v>
+      </c>
+      <c r="I43" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J43" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" ht="86.25" customHeight="1">
+      <c r="A44" s="33" t="s">
+        <v>165</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C44" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="28" t="s">
-        <v>162</v>
+      <c r="D44" s="30" t="s">
+        <v>167</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F44" s="25">
-        <v>33</v>
+        <v>33.0</v>
       </c>
       <c r="G44" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H44" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I44" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31" t="s">
-        <v>164</v>
+      <c r="H44" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I44" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J44" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="45" ht="75.0" customHeight="1">
+      <c r="A45" s="33" t="s">
+        <v>169</v>
       </c>
       <c r="B45" s="24" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C45" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="F45" s="25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H45" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="31" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>169</v>
+      <c r="H45" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I45" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="J45" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" ht="134.25" customHeight="1">
+      <c r="A46" s="35" t="s">
+        <v>174</v>
       </c>
       <c r="B46" s="24" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C46" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="24" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="F46" s="25" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G46" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H46" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I46" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="33" t="s">
-        <v>174</v>
+        <v>76</v>
+      </c>
+      <c r="I46" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" ht="75.0" customHeight="1">
+      <c r="A47" s="35" t="s">
+        <v>179</v>
       </c>
       <c r="B47" s="24" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D47" s="24" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F47" s="25" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G47" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H47" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I47" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="33" t="s">
-        <v>179</v>
+        <v>76</v>
+      </c>
+      <c r="I47" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J47" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" ht="75.0" customHeight="1">
+      <c r="A48" s="35" t="s">
+        <v>184</v>
       </c>
       <c r="B48" s="24" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D48" s="24" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="G48" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H48" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I48" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="I48" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J48" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" ht="75.0" customHeight="1">
+      <c r="A49" s="35" t="s">
+        <v>189</v>
       </c>
       <c r="B49" s="24" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C49" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D49" s="24" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="F49" s="25" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G49" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H49" s="26" t="s">
+      <c r="H49" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I49" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
-        <v>189</v>
+      <c r="I49" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" ht="97.5" customHeight="1">
+      <c r="A50" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="G50" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H50" s="26" t="s">
+      <c r="H50" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I50" s="33" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="34" t="s">
-        <v>193</v>
+      <c r="I50" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="J50" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" ht="75.0" customHeight="1">
+      <c r="A51" s="36" t="s">
+        <v>198</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="F51" s="25" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G51" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="26" t="s">
+      <c r="H51" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34" t="s">
-        <v>199</v>
+      <c r="I51" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J51" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" ht="75.0" customHeight="1">
+      <c r="A52" s="36" t="s">
+        <v>204</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="F52" s="25" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="G52" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H52" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="34" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="34" t="s">
-        <v>204</v>
+      <c r="H52" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I52" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J52" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" ht="75.0" customHeight="1">
+      <c r="A53" s="36" t="s">
+        <v>209</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G53" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H53" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I53" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="34" t="s">
-        <v>209</v>
+        <v>43</v>
+      </c>
+      <c r="I53" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J53" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" ht="75.0" customHeight="1">
+      <c r="A54" s="36" t="s">
+        <v>214</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E54" s="24" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F54" s="25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G54" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H54" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="34" t="s">
-        <v>214</v>
+      <c r="H54" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I54" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J54" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" ht="75.0" customHeight="1">
+      <c r="A55" s="36" t="s">
+        <v>219</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D55" s="24" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="E55" s="24" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="F55" s="25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H55" s="26" t="s">
+      <c r="H55" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I55" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J55" s="35"/>
-    </row>
-    <row r="56" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="34" t="s">
-        <v>218</v>
+      <c r="I55" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J55" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" ht="75.0" customHeight="1">
+      <c r="A56" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D56" s="24" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E56" s="24" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F56" s="25">
-        <v>12</v>
+        <v>12.0</v>
       </c>
       <c r="G56" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H56" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I56" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J56" s="35"/>
-    </row>
-    <row r="57" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
-        <v>222</v>
+      <c r="H56" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I56" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" ht="75.0" customHeight="1">
+      <c r="A57" s="36" t="s">
+        <v>227</v>
       </c>
       <c r="B57" s="24" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="C57" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D57" s="24" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E57" s="24" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="F57" s="25">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="G57" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H57" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I57" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J57" s="35"/>
-    </row>
-    <row r="58" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="34" t="s">
-        <v>226</v>
+      <c r="I57" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" ht="75.0" customHeight="1">
+      <c r="A58" s="36" t="s">
+        <v>231</v>
       </c>
       <c r="B58" s="24" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C58" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D58" s="24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E58" s="24" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F58" s="25" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="G58" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H58" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J58" s="35"/>
-    </row>
-    <row r="59" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="34" t="s">
-        <v>230</v>
+      <c r="I58" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" ht="75.0" customHeight="1">
+      <c r="A59" s="36" t="s">
+        <v>235</v>
       </c>
       <c r="B59" s="24" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C59" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D59" s="24" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E59" s="24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F59" s="25" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="G59" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H59" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I59" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J59" s="35"/>
-    </row>
-    <row r="60" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="34" t="s">
-        <v>235</v>
+      <c r="I59" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J59" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" ht="75.0" customHeight="1">
+      <c r="A60" s="36" t="s">
+        <v>240</v>
       </c>
       <c r="B60" s="24" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D60" s="24" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="E60" s="24" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="F60" s="25" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H60" s="26" t="s">
+      <c r="H60" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I60" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J60" s="35"/>
-    </row>
-    <row r="61" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="34" t="s">
-        <v>239</v>
+      <c r="I60" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J60" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" ht="75.0" customHeight="1">
+      <c r="A61" s="36" t="s">
+        <v>244</v>
       </c>
       <c r="B61" s="24" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E61" s="24" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F61" s="25" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="G61" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H61" s="26" t="s">
+      <c r="H61" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I61" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J61" s="35"/>
-    </row>
-    <row r="62" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="34" t="s">
-        <v>243</v>
+      <c r="I61" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J61" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" ht="75.0" customHeight="1">
+      <c r="A62" s="36" t="s">
+        <v>248</v>
       </c>
       <c r="B62" s="24" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C62" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D62" s="32" t="s">
-        <v>245</v>
+      <c r="D62" s="34" t="s">
+        <v>250</v>
       </c>
       <c r="E62" s="24" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F62" s="25">
-        <v>11</v>
+        <v>11.0</v>
       </c>
       <c r="G62" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H62" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>198</v>
-      </c>
-      <c r="J62" s="35"/>
-    </row>
-    <row r="63" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="36" t="s">
-        <v>247</v>
+      <c r="H62" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="I62" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="J62" s="37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="63" ht="75.0" customHeight="1">
+      <c r="A63" s="38" t="s">
+        <v>252</v>
       </c>
       <c r="B63" s="24" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C63" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D63" s="24" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="E63" s="24" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="F63" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G63" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H63" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="I63" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J63" s="35"/>
-    </row>
-    <row r="64" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="36" t="s">
-        <v>253</v>
+      <c r="H63" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J63" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" ht="75.0" customHeight="1">
+      <c r="A64" s="38" t="s">
+        <v>257</v>
       </c>
       <c r="B64" s="24" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D64" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="E64" s="24" t="s">
         <v>255</v>
       </c>
-      <c r="E64" s="24" t="s">
-        <v>250</v>
-      </c>
       <c r="F64" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H64" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="I64" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J64" s="35"/>
-    </row>
-    <row r="65" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="36" t="s">
+      <c r="H64" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I64" s="38" t="s">
         <v>256</v>
       </c>
+      <c r="J64" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" ht="75.0" customHeight="1">
+      <c r="A65" s="38" t="s">
+        <v>260</v>
+      </c>
       <c r="B65" s="24" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D65" s="24" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E65" s="24" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F65" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G65" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H65" s="26" t="s">
-        <v>251</v>
-      </c>
-      <c r="I65" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J65" s="35"/>
-    </row>
-    <row r="66" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="36" t="s">
-        <v>260</v>
+      <c r="H65" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J65" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" ht="75.0" customHeight="1">
+      <c r="A66" s="38" t="s">
+        <v>264</v>
       </c>
       <c r="B66" s="24" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D66" s="24" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F66" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G66" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I66" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J66" s="35"/>
-    </row>
-    <row r="67" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="36" t="s">
-        <v>264</v>
+        <v>76</v>
+      </c>
+      <c r="I66" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J66" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" ht="75.0" customHeight="1">
+      <c r="A67" s="38" t="s">
+        <v>268</v>
       </c>
       <c r="B67" s="24" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C67" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="24" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E67" s="24" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="F67" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G67" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H67" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I67" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J67" s="35"/>
-    </row>
-    <row r="68" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="36" t="s">
-        <v>268</v>
+      <c r="H67" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J67" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" ht="75.0" customHeight="1">
+      <c r="A68" s="38" t="s">
+        <v>272</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C68" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D68" s="24" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="F68" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="I68" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J68" s="35"/>
-    </row>
-    <row r="69" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="36" t="s">
-        <v>272</v>
+        <v>43</v>
+      </c>
+      <c r="I68" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J68" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" ht="75.0" customHeight="1">
+      <c r="A69" s="38" t="s">
+        <v>276</v>
       </c>
       <c r="B69" s="24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C69" s="24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="E69" s="24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="F69" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G69" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I69" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J69" s="35"/>
-    </row>
-    <row r="70" spans="1:10" ht="99" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="36" t="s">
-        <v>276</v>
+        <v>76</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J69" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" ht="99.0" customHeight="1">
+      <c r="A70" s="38" t="s">
+        <v>280</v>
       </c>
       <c r="B70" s="24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C70" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E70" s="24" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F70" s="25">
-        <v>0</v>
+        <v>0.0</v>
       </c>
       <c r="G70" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H70" s="26" t="s">
+      <c r="H70" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I70" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J70" s="35"/>
-    </row>
-    <row r="71" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
-        <v>280</v>
+      <c r="I70" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J70" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" ht="75.0" customHeight="1">
+      <c r="A71" s="38" t="s">
+        <v>284</v>
       </c>
       <c r="B71" s="24" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C71" s="24" t="s">
         <v>39</v>
       </c>
       <c r="D71" s="24" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="E71" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="F71" s="37">
-        <v>0</v>
+        <v>287</v>
+      </c>
+      <c r="F71" s="39">
+        <v>0.0</v>
       </c>
       <c r="G71" s="26" t="s">
         <v>42</v>
       </c>
       <c r="H71" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J71" s="35"/>
-    </row>
-    <row r="72" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
-        <v>284</v>
+        <v>76</v>
+      </c>
+      <c r="I71" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J71" s="37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" ht="75.0" customHeight="1">
+      <c r="A72" s="38" t="s">
+        <v>288</v>
       </c>
       <c r="B72" s="24" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D72" s="24" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="E72" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="F72" s="37">
-        <v>0</v>
+        <v>291</v>
+      </c>
+      <c r="F72" s="39">
+        <v>0.0</v>
       </c>
       <c r="G72" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="H72" s="26" t="s">
+      <c r="H72" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="I72" s="36" t="s">
-        <v>252</v>
-      </c>
-      <c r="J72" s="35"/>
-    </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="38"/>
+      <c r="I72" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="J72" s="37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" ht="14.25" customHeight="1">
+      <c r="A73" s="40"/>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
@@ -3218,10 +3362,10 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="26"/>
-      <c r="J73" s="35"/>
-    </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="38"/>
+      <c r="J73" s="41"/>
+    </row>
+    <row r="74" ht="14.25" customHeight="1">
+      <c r="A74" s="40"/>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -3230,10 +3374,10 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="26"/>
-      <c r="J74" s="35"/>
-    </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="38"/>
+      <c r="J74" s="41"/>
+    </row>
+    <row r="75" ht="14.25" customHeight="1">
+      <c r="A75" s="40"/>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
@@ -3242,2950 +3386,2952 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="26"/>
-      <c r="J75" s="35"/>
-    </row>
-    <row r="76" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="35"/>
-      <c r="E76" s="35"/>
+      <c r="J75" s="41"/>
+    </row>
+    <row r="76" ht="14.25" customHeight="1">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
       <c r="F76" s="25"/>
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="26"/>
-      <c r="J76" s="35"/>
-    </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="35"/>
-      <c r="E77" s="35"/>
+      <c r="J76" s="41"/>
+    </row>
+    <row r="77" ht="14.25" customHeight="1">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
       <c r="F77" s="25"/>
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="26"/>
-      <c r="J77" s="35"/>
-    </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="35"/>
+      <c r="J77" s="41"/>
+    </row>
+    <row r="78" ht="14.25" customHeight="1">
+      <c r="D78" s="41"/>
       <c r="F78" s="25"/>
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="26"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D79" s="35"/>
+    <row r="79" ht="14.25" customHeight="1">
+      <c r="D79" s="41"/>
       <c r="F79" s="25"/>
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D80" s="35"/>
+    <row r="80" ht="14.25" customHeight="1">
+      <c r="D80" s="41"/>
       <c r="F80" s="25"/>
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
     </row>
-    <row r="81" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D81" s="35"/>
+    <row r="81" ht="14.25" customHeight="1">
+      <c r="D81" s="41"/>
       <c r="F81" s="25"/>
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D82" s="35"/>
+    <row r="82" ht="14.25" customHeight="1">
+      <c r="D82" s="41"/>
       <c r="F82" s="25"/>
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
     </row>
-    <row r="83" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D83" s="35"/>
+    <row r="83" ht="14.25" customHeight="1">
+      <c r="D83" s="41"/>
       <c r="F83" s="25"/>
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
     </row>
-    <row r="84" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D84" s="35"/>
+    <row r="84" ht="14.25" customHeight="1">
+      <c r="D84" s="41"/>
       <c r="F84" s="25"/>
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" ht="14.25" customHeight="1">
       <c r="F85" s="25"/>
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
     </row>
-    <row r="86" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" ht="14.25" customHeight="1">
       <c r="F86" s="25"/>
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
     </row>
-    <row r="87" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" ht="14.25" customHeight="1">
       <c r="F87" s="25"/>
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
     </row>
-    <row r="88" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" ht="14.25" customHeight="1">
       <c r="F88" s="25"/>
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
     </row>
-    <row r="89" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" ht="14.25" customHeight="1">
       <c r="F89" s="25"/>
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
     </row>
-    <row r="90" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" ht="14.25" customHeight="1">
       <c r="F90" s="25"/>
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
     </row>
-    <row r="91" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" ht="14.25" customHeight="1">
       <c r="F91" s="25"/>
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" ht="14.25" customHeight="1">
       <c r="F92" s="25"/>
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
     </row>
-    <row r="93" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" ht="14.25" customHeight="1">
       <c r="F93" s="25"/>
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
     </row>
-    <row r="94" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" ht="14.25" customHeight="1">
       <c r="F94" s="25"/>
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" ht="14.25" customHeight="1">
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
     </row>
-    <row r="96" spans="4:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" ht="14.25" customHeight="1">
       <c r="F96" s="25"/>
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
     </row>
-    <row r="97" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" ht="14.25" customHeight="1">
       <c r="F97" s="25"/>
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" ht="14.25" customHeight="1">
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
     </row>
-    <row r="99" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" ht="14.25" customHeight="1">
       <c r="F99" s="25"/>
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
     </row>
-    <row r="100" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" ht="14.25" customHeight="1">
       <c r="F100" s="25"/>
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
     </row>
-    <row r="101" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" ht="14.25" customHeight="1">
       <c r="F101" s="2"/>
       <c r="I101" s="25"/>
     </row>
-    <row r="102" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" ht="14.25" customHeight="1">
       <c r="F102" s="2"/>
       <c r="I102" s="25"/>
     </row>
-    <row r="103" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" ht="14.25" customHeight="1">
       <c r="F103" s="2"/>
       <c r="I103" s="25"/>
     </row>
-    <row r="104" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" ht="14.25" customHeight="1">
       <c r="F104" s="2"/>
       <c r="I104" s="25"/>
     </row>
-    <row r="105" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" ht="14.25" customHeight="1">
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" ht="14.25" customHeight="1">
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" ht="14.25" customHeight="1">
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" ht="14.25" customHeight="1">
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" ht="14.25" customHeight="1">
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" ht="14.25" customHeight="1">
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" ht="14.25" customHeight="1">
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="6:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" ht="14.25" customHeight="1">
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" ht="14.25" customHeight="1">
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" ht="14.25" customHeight="1">
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" ht="14.25" customHeight="1">
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" ht="14.25" customHeight="1">
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" ht="14.25" customHeight="1">
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" ht="14.25" customHeight="1">
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" ht="14.25" customHeight="1">
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" ht="14.25" customHeight="1">
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" ht="14.25" customHeight="1">
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" ht="14.25" customHeight="1">
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" ht="14.25" customHeight="1">
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" ht="14.25" customHeight="1">
       <c r="F125" s="2"/>
     </row>
-    <row r="126" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" ht="14.25" customHeight="1">
       <c r="F126" s="2"/>
     </row>
-    <row r="127" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" ht="14.25" customHeight="1">
       <c r="F127" s="2"/>
     </row>
-    <row r="128" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" ht="14.25" customHeight="1">
       <c r="F128" s="2"/>
     </row>
-    <row r="129" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" ht="14.25" customHeight="1">
       <c r="F129" s="2"/>
     </row>
-    <row r="130" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" ht="14.25" customHeight="1">
       <c r="F130" s="2"/>
     </row>
-    <row r="131" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" ht="14.25" customHeight="1">
       <c r="F131" s="2"/>
     </row>
-    <row r="132" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" ht="14.25" customHeight="1">
       <c r="F132" s="2"/>
     </row>
-    <row r="133" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" ht="14.25" customHeight="1">
       <c r="F133" s="2"/>
     </row>
-    <row r="134" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" ht="14.25" customHeight="1">
       <c r="F134" s="2"/>
     </row>
-    <row r="135" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" ht="14.25" customHeight="1">
       <c r="F135" s="2"/>
     </row>
-    <row r="136" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" ht="14.25" customHeight="1">
       <c r="F136" s="2"/>
     </row>
-    <row r="137" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" ht="14.25" customHeight="1">
       <c r="F137" s="2"/>
     </row>
-    <row r="138" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" ht="14.25" customHeight="1">
       <c r="F138" s="2"/>
     </row>
-    <row r="139" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" ht="14.25" customHeight="1">
       <c r="F139" s="2"/>
     </row>
-    <row r="140" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" ht="14.25" customHeight="1">
       <c r="F140" s="2"/>
     </row>
-    <row r="141" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" ht="14.25" customHeight="1">
       <c r="F141" s="2"/>
     </row>
-    <row r="142" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" ht="14.25" customHeight="1">
       <c r="F142" s="2"/>
     </row>
-    <row r="143" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" ht="14.25" customHeight="1">
       <c r="F143" s="2"/>
     </row>
-    <row r="144" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" ht="14.25" customHeight="1">
       <c r="F144" s="2"/>
     </row>
-    <row r="145" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" ht="14.25" customHeight="1">
       <c r="F145" s="2"/>
     </row>
-    <row r="146" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" ht="14.25" customHeight="1">
       <c r="F146" s="2"/>
     </row>
-    <row r="147" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" ht="14.25" customHeight="1">
       <c r="F147" s="2"/>
     </row>
-    <row r="148" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" ht="14.25" customHeight="1">
       <c r="F148" s="2"/>
     </row>
-    <row r="149" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" ht="14.25" customHeight="1">
       <c r="F149" s="2"/>
     </row>
-    <row r="150" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" ht="14.25" customHeight="1">
       <c r="F150" s="2"/>
     </row>
-    <row r="151" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" ht="14.25" customHeight="1">
       <c r="F151" s="2"/>
     </row>
-    <row r="152" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" ht="14.25" customHeight="1">
       <c r="F152" s="2"/>
     </row>
-    <row r="153" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" ht="14.25" customHeight="1">
       <c r="F153" s="2"/>
     </row>
-    <row r="154" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" ht="14.25" customHeight="1">
       <c r="F154" s="2"/>
     </row>
-    <row r="155" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" ht="14.25" customHeight="1">
       <c r="F155" s="2"/>
     </row>
-    <row r="156" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" ht="14.25" customHeight="1">
       <c r="F156" s="2"/>
     </row>
-    <row r="157" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" ht="14.25" customHeight="1">
       <c r="F157" s="2"/>
     </row>
-    <row r="158" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" ht="14.25" customHeight="1">
       <c r="F158" s="2"/>
     </row>
-    <row r="159" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" ht="14.25" customHeight="1">
       <c r="F159" s="2"/>
     </row>
-    <row r="160" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" ht="14.25" customHeight="1">
       <c r="F160" s="2"/>
     </row>
-    <row r="161" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" ht="14.25" customHeight="1">
       <c r="F161" s="2"/>
     </row>
-    <row r="162" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" ht="14.25" customHeight="1">
       <c r="F162" s="2"/>
     </row>
-    <row r="163" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" ht="14.25" customHeight="1">
       <c r="F163" s="2"/>
     </row>
-    <row r="164" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" ht="14.25" customHeight="1">
       <c r="F164" s="2"/>
     </row>
-    <row r="165" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" ht="14.25" customHeight="1">
       <c r="F165" s="2"/>
     </row>
-    <row r="166" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" ht="14.25" customHeight="1">
       <c r="F166" s="2"/>
     </row>
-    <row r="167" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" ht="14.25" customHeight="1">
       <c r="F167" s="2"/>
     </row>
-    <row r="168" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" ht="14.25" customHeight="1">
       <c r="F168" s="2"/>
     </row>
-    <row r="169" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" ht="14.25" customHeight="1">
       <c r="F169" s="2"/>
     </row>
-    <row r="170" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" ht="14.25" customHeight="1">
       <c r="F170" s="2"/>
     </row>
-    <row r="171" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" ht="14.25" customHeight="1">
       <c r="F171" s="2"/>
     </row>
-    <row r="172" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" ht="14.25" customHeight="1">
       <c r="F172" s="2"/>
     </row>
-    <row r="173" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" ht="14.25" customHeight="1">
       <c r="F173" s="2"/>
     </row>
-    <row r="174" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" ht="14.25" customHeight="1">
       <c r="F174" s="2"/>
     </row>
-    <row r="175" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" ht="14.25" customHeight="1">
       <c r="F175" s="2"/>
     </row>
-    <row r="176" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" ht="14.25" customHeight="1">
       <c r="F176" s="2"/>
     </row>
-    <row r="177" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" ht="14.25" customHeight="1">
       <c r="F177" s="2"/>
     </row>
-    <row r="178" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" ht="14.25" customHeight="1">
       <c r="F178" s="2"/>
     </row>
-    <row r="179" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" ht="14.25" customHeight="1">
       <c r="F179" s="2"/>
     </row>
-    <row r="180" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" ht="14.25" customHeight="1">
       <c r="F180" s="2"/>
     </row>
-    <row r="181" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" ht="14.25" customHeight="1">
       <c r="F181" s="2"/>
     </row>
-    <row r="182" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" ht="14.25" customHeight="1">
       <c r="F182" s="2"/>
     </row>
-    <row r="183" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" ht="14.25" customHeight="1">
       <c r="F183" s="2"/>
     </row>
-    <row r="184" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" ht="14.25" customHeight="1">
       <c r="F184" s="2"/>
     </row>
-    <row r="185" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" ht="14.25" customHeight="1">
       <c r="F185" s="2"/>
     </row>
-    <row r="186" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" ht="14.25" customHeight="1">
       <c r="F186" s="2"/>
     </row>
-    <row r="187" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" ht="14.25" customHeight="1">
       <c r="F187" s="2"/>
     </row>
-    <row r="188" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" ht="14.25" customHeight="1">
       <c r="F188" s="2"/>
     </row>
-    <row r="189" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" ht="14.25" customHeight="1">
       <c r="F189" s="2"/>
     </row>
-    <row r="190" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" ht="14.25" customHeight="1">
       <c r="F190" s="2"/>
     </row>
-    <row r="191" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" ht="14.25" customHeight="1">
       <c r="F191" s="2"/>
     </row>
-    <row r="192" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" ht="14.25" customHeight="1">
       <c r="F192" s="2"/>
     </row>
-    <row r="193" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" ht="14.25" customHeight="1">
       <c r="F193" s="2"/>
     </row>
-    <row r="194" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" ht="14.25" customHeight="1">
       <c r="F194" s="2"/>
     </row>
-    <row r="195" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" ht="14.25" customHeight="1">
       <c r="F195" s="2"/>
     </row>
-    <row r="196" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" ht="14.25" customHeight="1">
       <c r="F196" s="2"/>
     </row>
-    <row r="197" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" ht="14.25" customHeight="1">
       <c r="F197" s="2"/>
     </row>
-    <row r="198" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" ht="14.25" customHeight="1">
       <c r="F198" s="2"/>
     </row>
-    <row r="199" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" ht="14.25" customHeight="1">
       <c r="F199" s="2"/>
     </row>
-    <row r="200" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" ht="14.25" customHeight="1">
       <c r="F200" s="2"/>
     </row>
-    <row r="201" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" ht="14.25" customHeight="1">
       <c r="F201" s="2"/>
     </row>
-    <row r="202" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" ht="14.25" customHeight="1">
       <c r="F202" s="2"/>
     </row>
-    <row r="203" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" ht="14.25" customHeight="1">
       <c r="F203" s="2"/>
     </row>
-    <row r="204" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" ht="14.25" customHeight="1">
       <c r="F204" s="2"/>
     </row>
-    <row r="205" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" ht="14.25" customHeight="1">
       <c r="F205" s="2"/>
     </row>
-    <row r="206" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" ht="14.25" customHeight="1">
       <c r="F206" s="2"/>
     </row>
-    <row r="207" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" ht="14.25" customHeight="1">
       <c r="F207" s="2"/>
     </row>
-    <row r="208" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" ht="14.25" customHeight="1">
       <c r="F208" s="2"/>
     </row>
-    <row r="209" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" ht="14.25" customHeight="1">
       <c r="F209" s="2"/>
     </row>
-    <row r="210" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" ht="14.25" customHeight="1">
       <c r="F210" s="2"/>
     </row>
-    <row r="211" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" ht="14.25" customHeight="1">
       <c r="F211" s="2"/>
     </row>
-    <row r="212" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" ht="14.25" customHeight="1">
       <c r="F212" s="2"/>
     </row>
-    <row r="213" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" ht="14.25" customHeight="1">
       <c r="F213" s="2"/>
     </row>
-    <row r="214" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" ht="14.25" customHeight="1">
       <c r="F214" s="2"/>
     </row>
-    <row r="215" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" ht="14.25" customHeight="1">
       <c r="F215" s="2"/>
     </row>
-    <row r="216" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" ht="14.25" customHeight="1">
       <c r="F216" s="2"/>
     </row>
-    <row r="217" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" ht="14.25" customHeight="1">
       <c r="F217" s="2"/>
     </row>
-    <row r="218" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" ht="14.25" customHeight="1">
       <c r="F218" s="2"/>
     </row>
-    <row r="219" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" ht="14.25" customHeight="1">
       <c r="F219" s="2"/>
     </row>
-    <row r="220" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" ht="14.25" customHeight="1">
       <c r="F220" s="2"/>
     </row>
-    <row r="221" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" ht="14.25" customHeight="1">
       <c r="F221" s="2"/>
     </row>
-    <row r="222" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" ht="14.25" customHeight="1">
       <c r="F222" s="2"/>
     </row>
-    <row r="223" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" ht="14.25" customHeight="1">
       <c r="F223" s="2"/>
     </row>
-    <row r="224" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" ht="14.25" customHeight="1">
       <c r="F224" s="2"/>
     </row>
-    <row r="225" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" ht="14.25" customHeight="1">
       <c r="F225" s="2"/>
     </row>
-    <row r="226" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" ht="14.25" customHeight="1">
       <c r="F226" s="2"/>
     </row>
-    <row r="227" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" ht="14.25" customHeight="1">
       <c r="F227" s="2"/>
     </row>
-    <row r="228" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" ht="14.25" customHeight="1">
       <c r="F228" s="2"/>
     </row>
-    <row r="229" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" ht="14.25" customHeight="1">
       <c r="F229" s="2"/>
     </row>
-    <row r="230" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" ht="14.25" customHeight="1">
       <c r="F230" s="2"/>
     </row>
-    <row r="231" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" ht="14.25" customHeight="1">
       <c r="F231" s="2"/>
     </row>
-    <row r="232" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" ht="14.25" customHeight="1">
       <c r="F232" s="2"/>
     </row>
-    <row r="233" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" ht="14.25" customHeight="1">
       <c r="F233" s="2"/>
     </row>
-    <row r="234" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" ht="14.25" customHeight="1">
       <c r="F234" s="2"/>
     </row>
-    <row r="235" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" ht="14.25" customHeight="1">
       <c r="F235" s="2"/>
     </row>
-    <row r="236" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" ht="14.25" customHeight="1">
       <c r="F236" s="2"/>
     </row>
-    <row r="237" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" ht="14.25" customHeight="1">
       <c r="F237" s="2"/>
     </row>
-    <row r="238" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" ht="14.25" customHeight="1">
       <c r="F238" s="2"/>
     </row>
-    <row r="239" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" ht="14.25" customHeight="1">
       <c r="F239" s="2"/>
     </row>
-    <row r="240" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" ht="14.25" customHeight="1">
       <c r="F240" s="2"/>
     </row>
-    <row r="241" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" ht="14.25" customHeight="1">
       <c r="F241" s="2"/>
     </row>
-    <row r="242" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" ht="14.25" customHeight="1">
       <c r="F242" s="2"/>
     </row>
-    <row r="243" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" ht="14.25" customHeight="1">
       <c r="F243" s="2"/>
     </row>
-    <row r="244" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" ht="14.25" customHeight="1">
       <c r="F244" s="2"/>
     </row>
-    <row r="245" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" ht="14.25" customHeight="1">
       <c r="F245" s="2"/>
     </row>
-    <row r="246" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" ht="14.25" customHeight="1">
       <c r="F246" s="2"/>
     </row>
-    <row r="247" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" ht="14.25" customHeight="1">
       <c r="F247" s="2"/>
     </row>
-    <row r="248" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" ht="14.25" customHeight="1">
       <c r="F248" s="2"/>
     </row>
-    <row r="249" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" ht="14.25" customHeight="1">
       <c r="F249" s="2"/>
     </row>
-    <row r="250" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" ht="14.25" customHeight="1">
       <c r="F250" s="2"/>
     </row>
-    <row r="251" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" ht="14.25" customHeight="1">
       <c r="F251" s="2"/>
     </row>
-    <row r="252" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" ht="14.25" customHeight="1">
       <c r="F252" s="2"/>
     </row>
-    <row r="253" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" ht="14.25" customHeight="1">
       <c r="F253" s="2"/>
     </row>
-    <row r="254" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" ht="14.25" customHeight="1">
       <c r="F254" s="2"/>
     </row>
-    <row r="255" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" ht="14.25" customHeight="1">
       <c r="F255" s="2"/>
     </row>
-    <row r="256" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" ht="14.25" customHeight="1">
       <c r="F256" s="2"/>
     </row>
-    <row r="257" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" ht="14.25" customHeight="1">
       <c r="F257" s="2"/>
     </row>
-    <row r="258" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" ht="14.25" customHeight="1">
       <c r="F258" s="2"/>
     </row>
-    <row r="259" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" ht="14.25" customHeight="1">
       <c r="F259" s="2"/>
     </row>
-    <row r="260" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" ht="14.25" customHeight="1">
       <c r="F260" s="2"/>
     </row>
-    <row r="261" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" ht="14.25" customHeight="1">
       <c r="F261" s="2"/>
     </row>
-    <row r="262" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" ht="14.25" customHeight="1">
       <c r="F262" s="2"/>
     </row>
-    <row r="263" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" ht="14.25" customHeight="1">
       <c r="F263" s="2"/>
     </row>
-    <row r="264" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" ht="14.25" customHeight="1">
       <c r="F264" s="2"/>
     </row>
-    <row r="265" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" ht="14.25" customHeight="1">
       <c r="F265" s="2"/>
     </row>
-    <row r="266" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" ht="14.25" customHeight="1">
       <c r="F266" s="2"/>
     </row>
-    <row r="267" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" ht="14.25" customHeight="1">
       <c r="F267" s="2"/>
     </row>
-    <row r="268" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" ht="14.25" customHeight="1">
       <c r="F268" s="2"/>
     </row>
-    <row r="269" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" ht="14.25" customHeight="1">
       <c r="F269" s="2"/>
     </row>
-    <row r="270" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" ht="14.25" customHeight="1">
       <c r="F270" s="2"/>
     </row>
-    <row r="271" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" ht="14.25" customHeight="1">
       <c r="F271" s="2"/>
     </row>
-    <row r="272" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" ht="14.25" customHeight="1">
       <c r="F272" s="2"/>
     </row>
-    <row r="273" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" ht="14.25" customHeight="1">
       <c r="F273" s="2"/>
     </row>
-    <row r="274" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" ht="14.25" customHeight="1">
       <c r="F274" s="2"/>
     </row>
-    <row r="275" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" ht="14.25" customHeight="1">
       <c r="F275" s="2"/>
     </row>
-    <row r="276" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" ht="14.25" customHeight="1">
       <c r="F276" s="2"/>
     </row>
-    <row r="277" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" ht="14.25" customHeight="1">
       <c r="F277" s="2"/>
     </row>
-    <row r="278" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" ht="14.25" customHeight="1">
       <c r="F278" s="2"/>
     </row>
-    <row r="279" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" ht="14.25" customHeight="1">
       <c r="F279" s="2"/>
     </row>
-    <row r="280" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" ht="14.25" customHeight="1">
       <c r="F280" s="2"/>
     </row>
-    <row r="281" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" ht="14.25" customHeight="1">
       <c r="F281" s="2"/>
     </row>
-    <row r="282" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" ht="14.25" customHeight="1">
       <c r="F282" s="2"/>
     </row>
-    <row r="283" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" ht="14.25" customHeight="1">
       <c r="F283" s="2"/>
     </row>
-    <row r="284" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" ht="14.25" customHeight="1">
       <c r="F284" s="2"/>
     </row>
-    <row r="285" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" ht="14.25" customHeight="1">
       <c r="F285" s="2"/>
     </row>
-    <row r="286" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" ht="14.25" customHeight="1">
       <c r="F286" s="2"/>
     </row>
-    <row r="287" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" ht="14.25" customHeight="1">
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" ht="14.25" customHeight="1">
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" ht="14.25" customHeight="1">
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" ht="14.25" customHeight="1">
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" ht="14.25" customHeight="1">
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" ht="14.25" customHeight="1">
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" ht="14.25" customHeight="1">
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" ht="14.25" customHeight="1">
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" ht="14.25" customHeight="1">
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" ht="14.25" customHeight="1">
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" ht="14.25" customHeight="1">
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" ht="14.25" customHeight="1">
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" ht="14.25" customHeight="1">
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" ht="14.25" customHeight="1">
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" ht="14.25" customHeight="1">
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" ht="14.25" customHeight="1">
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" ht="14.25" customHeight="1">
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" ht="14.25" customHeight="1">
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" ht="14.25" customHeight="1">
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" ht="14.25" customHeight="1">
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" ht="14.25" customHeight="1">
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" ht="14.25" customHeight="1">
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" ht="14.25" customHeight="1">
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" ht="14.25" customHeight="1">
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" ht="14.25" customHeight="1">
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" ht="14.25" customHeight="1">
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" ht="14.25" customHeight="1">
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" ht="14.25" customHeight="1">
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" ht="14.25" customHeight="1">
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" ht="14.25" customHeight="1">
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" ht="14.25" customHeight="1">
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" ht="14.25" customHeight="1">
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" ht="14.25" customHeight="1">
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" ht="14.25" customHeight="1">
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" ht="14.25" customHeight="1">
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" ht="14.25" customHeight="1">
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" ht="14.25" customHeight="1">
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" ht="14.25" customHeight="1">
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" ht="14.25" customHeight="1">
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" ht="14.25" customHeight="1">
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" ht="14.25" customHeight="1">
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" ht="14.25" customHeight="1">
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" ht="14.25" customHeight="1">
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" ht="14.25" customHeight="1">
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" ht="14.25" customHeight="1">
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" ht="14.25" customHeight="1">
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" ht="14.25" customHeight="1">
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" ht="14.25" customHeight="1">
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" ht="14.25" customHeight="1">
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" ht="14.25" customHeight="1">
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" ht="14.25" customHeight="1">
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" ht="14.25" customHeight="1">
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" ht="14.25" customHeight="1">
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" ht="14.25" customHeight="1">
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" ht="14.25" customHeight="1">
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" ht="14.25" customHeight="1">
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" ht="14.25" customHeight="1">
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" ht="14.25" customHeight="1">
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" ht="14.25" customHeight="1">
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" ht="14.25" customHeight="1">
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" ht="14.25" customHeight="1">
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" ht="14.25" customHeight="1">
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" ht="14.25" customHeight="1">
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" ht="14.25" customHeight="1">
       <c r="F350" s="2"/>
     </row>
-    <row r="351" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" ht="14.25" customHeight="1">
       <c r="F351" s="2"/>
     </row>
-    <row r="352" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" ht="14.25" customHeight="1">
       <c r="F352" s="2"/>
     </row>
-    <row r="353" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" ht="14.25" customHeight="1">
       <c r="F353" s="2"/>
     </row>
-    <row r="354" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" ht="14.25" customHeight="1">
       <c r="F354" s="2"/>
     </row>
-    <row r="355" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" ht="14.25" customHeight="1">
       <c r="F355" s="2"/>
     </row>
-    <row r="356" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" ht="14.25" customHeight="1">
       <c r="F356" s="2"/>
     </row>
-    <row r="357" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" ht="14.25" customHeight="1">
       <c r="F357" s="2"/>
     </row>
-    <row r="358" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" ht="14.25" customHeight="1">
       <c r="F358" s="2"/>
     </row>
-    <row r="359" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" ht="14.25" customHeight="1">
       <c r="F359" s="2"/>
     </row>
-    <row r="360" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" ht="14.25" customHeight="1">
       <c r="F360" s="2"/>
     </row>
-    <row r="361" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" ht="14.25" customHeight="1">
       <c r="F361" s="2"/>
     </row>
-    <row r="362" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" ht="14.25" customHeight="1">
       <c r="F362" s="2"/>
     </row>
-    <row r="363" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" ht="14.25" customHeight="1">
       <c r="F363" s="2"/>
     </row>
-    <row r="364" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" ht="14.25" customHeight="1">
       <c r="F364" s="2"/>
     </row>
-    <row r="365" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" ht="14.25" customHeight="1">
       <c r="F365" s="2"/>
     </row>
-    <row r="366" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" ht="14.25" customHeight="1">
       <c r="F366" s="2"/>
     </row>
-    <row r="367" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" ht="14.25" customHeight="1">
       <c r="F367" s="2"/>
     </row>
-    <row r="368" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" ht="14.25" customHeight="1">
       <c r="F368" s="2"/>
     </row>
-    <row r="369" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" ht="14.25" customHeight="1">
       <c r="F369" s="2"/>
     </row>
-    <row r="370" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" ht="14.25" customHeight="1">
       <c r="F370" s="2"/>
     </row>
-    <row r="371" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" ht="14.25" customHeight="1">
       <c r="F371" s="2"/>
     </row>
-    <row r="372" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" ht="14.25" customHeight="1">
       <c r="F372" s="2"/>
     </row>
-    <row r="373" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" ht="14.25" customHeight="1">
       <c r="F373" s="2"/>
     </row>
-    <row r="374" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" ht="14.25" customHeight="1">
       <c r="F374" s="2"/>
     </row>
-    <row r="375" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" ht="14.25" customHeight="1">
       <c r="F375" s="2"/>
     </row>
-    <row r="376" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" ht="14.25" customHeight="1">
       <c r="F376" s="2"/>
     </row>
-    <row r="377" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" ht="14.25" customHeight="1">
       <c r="F377" s="2"/>
     </row>
-    <row r="378" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" ht="14.25" customHeight="1">
       <c r="F378" s="2"/>
     </row>
-    <row r="379" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" ht="14.25" customHeight="1">
       <c r="F379" s="2"/>
     </row>
-    <row r="380" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" ht="14.25" customHeight="1">
       <c r="F380" s="2"/>
     </row>
-    <row r="381" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" ht="14.25" customHeight="1">
       <c r="F381" s="2"/>
     </row>
-    <row r="382" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" ht="14.25" customHeight="1">
       <c r="F382" s="2"/>
     </row>
-    <row r="383" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" ht="14.25" customHeight="1">
       <c r="F383" s="2"/>
     </row>
-    <row r="384" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" ht="14.25" customHeight="1">
       <c r="F384" s="2"/>
     </row>
-    <row r="385" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" ht="14.25" customHeight="1">
       <c r="F385" s="2"/>
     </row>
-    <row r="386" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" ht="14.25" customHeight="1">
       <c r="F386" s="2"/>
     </row>
-    <row r="387" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" ht="14.25" customHeight="1">
       <c r="F387" s="2"/>
     </row>
-    <row r="388" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" ht="14.25" customHeight="1">
       <c r="F388" s="2"/>
     </row>
-    <row r="389" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" ht="14.25" customHeight="1">
       <c r="F389" s="2"/>
     </row>
-    <row r="390" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" ht="14.25" customHeight="1">
       <c r="F390" s="2"/>
     </row>
-    <row r="391" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" ht="14.25" customHeight="1">
       <c r="F391" s="2"/>
     </row>
-    <row r="392" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" ht="14.25" customHeight="1">
       <c r="F392" s="2"/>
     </row>
-    <row r="393" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" ht="14.25" customHeight="1">
       <c r="F393" s="2"/>
     </row>
-    <row r="394" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" ht="14.25" customHeight="1">
       <c r="F394" s="2"/>
     </row>
-    <row r="395" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" ht="14.25" customHeight="1">
       <c r="F395" s="2"/>
     </row>
-    <row r="396" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" ht="14.25" customHeight="1">
       <c r="F396" s="2"/>
     </row>
-    <row r="397" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" ht="14.25" customHeight="1">
       <c r="F397" s="2"/>
     </row>
-    <row r="398" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" ht="14.25" customHeight="1">
       <c r="F398" s="2"/>
     </row>
-    <row r="399" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" ht="14.25" customHeight="1">
       <c r="F399" s="2"/>
     </row>
-    <row r="400" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" ht="14.25" customHeight="1">
       <c r="F400" s="2"/>
     </row>
-    <row r="401" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" ht="14.25" customHeight="1">
       <c r="F401" s="2"/>
     </row>
-    <row r="402" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" ht="14.25" customHeight="1">
       <c r="F402" s="2"/>
     </row>
-    <row r="403" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" ht="14.25" customHeight="1">
       <c r="F403" s="2"/>
     </row>
-    <row r="404" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" ht="14.25" customHeight="1">
       <c r="F404" s="2"/>
     </row>
-    <row r="405" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" ht="14.25" customHeight="1">
       <c r="F405" s="2"/>
     </row>
-    <row r="406" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" ht="14.25" customHeight="1">
       <c r="F406" s="2"/>
     </row>
-    <row r="407" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" ht="14.25" customHeight="1">
       <c r="F407" s="2"/>
     </row>
-    <row r="408" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" ht="14.25" customHeight="1">
       <c r="F408" s="2"/>
     </row>
-    <row r="409" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" ht="14.25" customHeight="1">
       <c r="F409" s="2"/>
     </row>
-    <row r="410" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" ht="14.25" customHeight="1">
       <c r="F410" s="2"/>
     </row>
-    <row r="411" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" ht="14.25" customHeight="1">
       <c r="F411" s="2"/>
     </row>
-    <row r="412" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" ht="14.25" customHeight="1">
       <c r="F412" s="2"/>
     </row>
-    <row r="413" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" ht="14.25" customHeight="1">
       <c r="F413" s="2"/>
     </row>
-    <row r="414" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" ht="14.25" customHeight="1">
       <c r="F414" s="2"/>
     </row>
-    <row r="415" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" ht="14.25" customHeight="1">
       <c r="F415" s="2"/>
     </row>
-    <row r="416" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" ht="14.25" customHeight="1">
       <c r="F416" s="2"/>
     </row>
-    <row r="417" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" ht="14.25" customHeight="1">
       <c r="F417" s="2"/>
     </row>
-    <row r="418" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" ht="14.25" customHeight="1">
       <c r="F418" s="2"/>
     </row>
-    <row r="419" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" ht="14.25" customHeight="1">
       <c r="F419" s="2"/>
     </row>
-    <row r="420" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" ht="14.25" customHeight="1">
       <c r="F420" s="2"/>
     </row>
-    <row r="421" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" ht="14.25" customHeight="1">
       <c r="F421" s="2"/>
     </row>
-    <row r="422" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" ht="14.25" customHeight="1">
       <c r="F422" s="2"/>
     </row>
-    <row r="423" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" ht="14.25" customHeight="1">
       <c r="F423" s="2"/>
     </row>
-    <row r="424" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" ht="14.25" customHeight="1">
       <c r="F424" s="2"/>
     </row>
-    <row r="425" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" ht="14.25" customHeight="1">
       <c r="F425" s="2"/>
     </row>
-    <row r="426" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" ht="14.25" customHeight="1">
       <c r="F426" s="2"/>
     </row>
-    <row r="427" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" ht="14.25" customHeight="1">
       <c r="F427" s="2"/>
     </row>
-    <row r="428" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" ht="14.25" customHeight="1">
       <c r="F428" s="2"/>
     </row>
-    <row r="429" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" ht="14.25" customHeight="1">
       <c r="F429" s="2"/>
     </row>
-    <row r="430" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" ht="14.25" customHeight="1">
       <c r="F430" s="2"/>
     </row>
-    <row r="431" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" ht="14.25" customHeight="1">
       <c r="F431" s="2"/>
     </row>
-    <row r="432" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" ht="14.25" customHeight="1">
       <c r="F432" s="2"/>
     </row>
-    <row r="433" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" ht="14.25" customHeight="1">
       <c r="F433" s="2"/>
     </row>
-    <row r="434" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" ht="14.25" customHeight="1">
       <c r="F434" s="2"/>
     </row>
-    <row r="435" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" ht="14.25" customHeight="1">
       <c r="F435" s="2"/>
     </row>
-    <row r="436" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" ht="14.25" customHeight="1">
       <c r="F436" s="2"/>
     </row>
-    <row r="437" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" ht="14.25" customHeight="1">
       <c r="F437" s="2"/>
     </row>
-    <row r="438" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" ht="14.25" customHeight="1">
       <c r="F438" s="2"/>
     </row>
-    <row r="439" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" ht="14.25" customHeight="1">
       <c r="F439" s="2"/>
     </row>
-    <row r="440" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" ht="14.25" customHeight="1">
       <c r="F440" s="2"/>
     </row>
-    <row r="441" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" ht="14.25" customHeight="1">
       <c r="F441" s="2"/>
     </row>
-    <row r="442" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" ht="14.25" customHeight="1">
       <c r="F442" s="2"/>
     </row>
-    <row r="443" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" ht="14.25" customHeight="1">
       <c r="F443" s="2"/>
     </row>
-    <row r="444" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" ht="14.25" customHeight="1">
       <c r="F444" s="2"/>
     </row>
-    <row r="445" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" ht="14.25" customHeight="1">
       <c r="F445" s="2"/>
     </row>
-    <row r="446" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" ht="14.25" customHeight="1">
       <c r="F446" s="2"/>
     </row>
-    <row r="447" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" ht="14.25" customHeight="1">
       <c r="F447" s="2"/>
     </row>
-    <row r="448" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" ht="14.25" customHeight="1">
       <c r="F448" s="2"/>
     </row>
-    <row r="449" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" ht="14.25" customHeight="1">
       <c r="F449" s="2"/>
     </row>
-    <row r="450" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" ht="14.25" customHeight="1">
       <c r="F450" s="2"/>
     </row>
-    <row r="451" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" ht="14.25" customHeight="1">
       <c r="F451" s="2"/>
     </row>
-    <row r="452" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" ht="14.25" customHeight="1">
       <c r="F452" s="2"/>
     </row>
-    <row r="453" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" ht="14.25" customHeight="1">
       <c r="F453" s="2"/>
     </row>
-    <row r="454" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" ht="14.25" customHeight="1">
       <c r="F454" s="2"/>
     </row>
-    <row r="455" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" ht="14.25" customHeight="1">
       <c r="F455" s="2"/>
     </row>
-    <row r="456" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" ht="14.25" customHeight="1">
       <c r="F456" s="2"/>
     </row>
-    <row r="457" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" ht="14.25" customHeight="1">
       <c r="F457" s="2"/>
     </row>
-    <row r="458" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" ht="14.25" customHeight="1">
       <c r="F458" s="2"/>
     </row>
-    <row r="459" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" ht="14.25" customHeight="1">
       <c r="F459" s="2"/>
     </row>
-    <row r="460" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" ht="14.25" customHeight="1">
       <c r="F460" s="2"/>
     </row>
-    <row r="461" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" ht="14.25" customHeight="1">
       <c r="F461" s="2"/>
     </row>
-    <row r="462" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" ht="14.25" customHeight="1">
       <c r="F462" s="2"/>
     </row>
-    <row r="463" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" ht="14.25" customHeight="1">
       <c r="F463" s="2"/>
     </row>
-    <row r="464" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" ht="14.25" customHeight="1">
       <c r="F464" s="2"/>
     </row>
-    <row r="465" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" ht="14.25" customHeight="1">
       <c r="F465" s="2"/>
     </row>
-    <row r="466" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" ht="14.25" customHeight="1">
       <c r="F466" s="2"/>
     </row>
-    <row r="467" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" ht="14.25" customHeight="1">
       <c r="F467" s="2"/>
     </row>
-    <row r="468" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" ht="14.25" customHeight="1">
       <c r="F468" s="2"/>
     </row>
-    <row r="469" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" ht="14.25" customHeight="1">
       <c r="F469" s="2"/>
     </row>
-    <row r="470" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" ht="14.25" customHeight="1">
       <c r="F470" s="2"/>
     </row>
-    <row r="471" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" ht="14.25" customHeight="1">
       <c r="F471" s="2"/>
     </row>
-    <row r="472" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" ht="14.25" customHeight="1">
       <c r="F472" s="2"/>
     </row>
-    <row r="473" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" ht="14.25" customHeight="1">
       <c r="F473" s="2"/>
     </row>
-    <row r="474" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" ht="14.25" customHeight="1">
       <c r="F474" s="2"/>
     </row>
-    <row r="475" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" ht="14.25" customHeight="1">
       <c r="F475" s="2"/>
     </row>
-    <row r="476" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" ht="14.25" customHeight="1">
       <c r="F476" s="2"/>
     </row>
-    <row r="477" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" ht="14.25" customHeight="1">
       <c r="F477" s="2"/>
     </row>
-    <row r="478" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" ht="14.25" customHeight="1">
       <c r="F478" s="2"/>
     </row>
-    <row r="479" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" ht="14.25" customHeight="1">
       <c r="F479" s="2"/>
     </row>
-    <row r="480" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" ht="14.25" customHeight="1">
       <c r="F480" s="2"/>
     </row>
-    <row r="481" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" ht="14.25" customHeight="1">
       <c r="F481" s="2"/>
     </row>
-    <row r="482" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" ht="14.25" customHeight="1">
       <c r="F482" s="2"/>
     </row>
-    <row r="483" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" ht="14.25" customHeight="1">
       <c r="F483" s="2"/>
     </row>
-    <row r="484" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" ht="14.25" customHeight="1">
       <c r="F484" s="2"/>
     </row>
-    <row r="485" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" ht="14.25" customHeight="1">
       <c r="F485" s="2"/>
     </row>
-    <row r="486" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" ht="14.25" customHeight="1">
       <c r="F486" s="2"/>
     </row>
-    <row r="487" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" ht="14.25" customHeight="1">
       <c r="F487" s="2"/>
     </row>
-    <row r="488" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" ht="14.25" customHeight="1">
       <c r="F488" s="2"/>
     </row>
-    <row r="489" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" ht="14.25" customHeight="1">
       <c r="F489" s="2"/>
     </row>
-    <row r="490" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" ht="14.25" customHeight="1">
       <c r="F490" s="2"/>
     </row>
-    <row r="491" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" ht="14.25" customHeight="1">
       <c r="F491" s="2"/>
     </row>
-    <row r="492" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" ht="14.25" customHeight="1">
       <c r="F492" s="2"/>
     </row>
-    <row r="493" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" ht="14.25" customHeight="1">
       <c r="F493" s="2"/>
     </row>
-    <row r="494" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" ht="14.25" customHeight="1">
       <c r="F494" s="2"/>
     </row>
-    <row r="495" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" ht="14.25" customHeight="1">
       <c r="F495" s="2"/>
     </row>
-    <row r="496" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" ht="14.25" customHeight="1">
       <c r="F496" s="2"/>
     </row>
-    <row r="497" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" ht="14.25" customHeight="1">
       <c r="F497" s="2"/>
     </row>
-    <row r="498" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" ht="14.25" customHeight="1">
       <c r="F498" s="2"/>
     </row>
-    <row r="499" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" ht="14.25" customHeight="1">
       <c r="F499" s="2"/>
     </row>
-    <row r="500" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" ht="14.25" customHeight="1">
       <c r="F500" s="2"/>
     </row>
-    <row r="501" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" ht="14.25" customHeight="1">
       <c r="F501" s="2"/>
     </row>
-    <row r="502" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" ht="14.25" customHeight="1">
       <c r="F502" s="2"/>
     </row>
-    <row r="503" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" ht="14.25" customHeight="1">
       <c r="F503" s="2"/>
     </row>
-    <row r="504" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" ht="14.25" customHeight="1">
       <c r="F504" s="2"/>
     </row>
-    <row r="505" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" ht="14.25" customHeight="1">
       <c r="F505" s="2"/>
     </row>
-    <row r="506" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" ht="14.25" customHeight="1">
       <c r="F506" s="2"/>
     </row>
-    <row r="507" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" ht="14.25" customHeight="1">
       <c r="F507" s="2"/>
     </row>
-    <row r="508" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" ht="14.25" customHeight="1">
       <c r="F508" s="2"/>
     </row>
-    <row r="509" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" ht="14.25" customHeight="1">
       <c r="F509" s="2"/>
     </row>
-    <row r="510" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" ht="14.25" customHeight="1">
       <c r="F510" s="2"/>
     </row>
-    <row r="511" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" ht="14.25" customHeight="1">
       <c r="F511" s="2"/>
     </row>
-    <row r="512" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" ht="14.25" customHeight="1">
       <c r="F512" s="2"/>
     </row>
-    <row r="513" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" ht="14.25" customHeight="1">
       <c r="F513" s="2"/>
     </row>
-    <row r="514" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" ht="14.25" customHeight="1">
       <c r="F514" s="2"/>
     </row>
-    <row r="515" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" ht="14.25" customHeight="1">
       <c r="F515" s="2"/>
     </row>
-    <row r="516" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" ht="14.25" customHeight="1">
       <c r="F516" s="2"/>
     </row>
-    <row r="517" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" ht="14.25" customHeight="1">
       <c r="F517" s="2"/>
     </row>
-    <row r="518" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" ht="14.25" customHeight="1">
       <c r="F518" s="2"/>
     </row>
-    <row r="519" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" ht="14.25" customHeight="1">
       <c r="F519" s="2"/>
     </row>
-    <row r="520" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" ht="14.25" customHeight="1">
       <c r="F520" s="2"/>
     </row>
-    <row r="521" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" ht="14.25" customHeight="1">
       <c r="F521" s="2"/>
     </row>
-    <row r="522" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" ht="14.25" customHeight="1">
       <c r="F522" s="2"/>
     </row>
-    <row r="523" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" ht="14.25" customHeight="1">
       <c r="F523" s="2"/>
     </row>
-    <row r="524" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" ht="14.25" customHeight="1">
       <c r="F524" s="2"/>
     </row>
-    <row r="525" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" ht="14.25" customHeight="1">
       <c r="F525" s="2"/>
     </row>
-    <row r="526" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" ht="14.25" customHeight="1">
       <c r="F526" s="2"/>
     </row>
-    <row r="527" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" ht="14.25" customHeight="1">
       <c r="F527" s="2"/>
     </row>
-    <row r="528" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" ht="14.25" customHeight="1">
       <c r="F528" s="2"/>
     </row>
-    <row r="529" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" ht="14.25" customHeight="1">
       <c r="F529" s="2"/>
     </row>
-    <row r="530" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" ht="14.25" customHeight="1">
       <c r="F530" s="2"/>
     </row>
-    <row r="531" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" ht="14.25" customHeight="1">
       <c r="F531" s="2"/>
     </row>
-    <row r="532" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" ht="14.25" customHeight="1">
       <c r="F532" s="2"/>
     </row>
-    <row r="533" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" ht="14.25" customHeight="1">
       <c r="F533" s="2"/>
     </row>
-    <row r="534" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" ht="14.25" customHeight="1">
       <c r="F534" s="2"/>
     </row>
-    <row r="535" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" ht="14.25" customHeight="1">
       <c r="F535" s="2"/>
     </row>
-    <row r="536" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" ht="14.25" customHeight="1">
       <c r="F536" s="2"/>
     </row>
-    <row r="537" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" ht="14.25" customHeight="1">
       <c r="F537" s="2"/>
     </row>
-    <row r="538" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" ht="14.25" customHeight="1">
       <c r="F538" s="2"/>
     </row>
-    <row r="539" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" ht="14.25" customHeight="1">
       <c r="F539" s="2"/>
     </row>
-    <row r="540" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" ht="14.25" customHeight="1">
       <c r="F540" s="2"/>
     </row>
-    <row r="541" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" ht="14.25" customHeight="1">
       <c r="F541" s="2"/>
     </row>
-    <row r="542" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" ht="14.25" customHeight="1">
       <c r="F542" s="2"/>
     </row>
-    <row r="543" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" ht="14.25" customHeight="1">
       <c r="F543" s="2"/>
     </row>
-    <row r="544" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" ht="14.25" customHeight="1">
       <c r="F544" s="2"/>
     </row>
-    <row r="545" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" ht="14.25" customHeight="1">
       <c r="F545" s="2"/>
     </row>
-    <row r="546" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" ht="14.25" customHeight="1">
       <c r="F546" s="2"/>
     </row>
-    <row r="547" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" ht="14.25" customHeight="1">
       <c r="F547" s="2"/>
     </row>
-    <row r="548" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" ht="14.25" customHeight="1">
       <c r="F548" s="2"/>
     </row>
-    <row r="549" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" ht="14.25" customHeight="1">
       <c r="F549" s="2"/>
     </row>
-    <row r="550" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" ht="14.25" customHeight="1">
       <c r="F550" s="2"/>
     </row>
-    <row r="551" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" ht="14.25" customHeight="1">
       <c r="F551" s="2"/>
     </row>
-    <row r="552" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" ht="14.25" customHeight="1">
       <c r="F552" s="2"/>
     </row>
-    <row r="553" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" ht="14.25" customHeight="1">
       <c r="F553" s="2"/>
     </row>
-    <row r="554" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" ht="14.25" customHeight="1">
       <c r="F554" s="2"/>
     </row>
-    <row r="555" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" ht="14.25" customHeight="1">
       <c r="F555" s="2"/>
     </row>
-    <row r="556" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" ht="14.25" customHeight="1">
       <c r="F556" s="2"/>
     </row>
-    <row r="557" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" ht="14.25" customHeight="1">
       <c r="F557" s="2"/>
     </row>
-    <row r="558" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" ht="14.25" customHeight="1">
       <c r="F558" s="2"/>
     </row>
-    <row r="559" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" ht="14.25" customHeight="1">
       <c r="F559" s="2"/>
     </row>
-    <row r="560" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" ht="14.25" customHeight="1">
       <c r="F560" s="2"/>
     </row>
-    <row r="561" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" ht="14.25" customHeight="1">
       <c r="F561" s="2"/>
     </row>
-    <row r="562" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" ht="14.25" customHeight="1">
       <c r="F562" s="2"/>
     </row>
-    <row r="563" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" ht="14.25" customHeight="1">
       <c r="F563" s="2"/>
     </row>
-    <row r="564" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" ht="14.25" customHeight="1">
       <c r="F564" s="2"/>
     </row>
-    <row r="565" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" ht="14.25" customHeight="1">
       <c r="F565" s="2"/>
     </row>
-    <row r="566" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" ht="14.25" customHeight="1">
       <c r="F566" s="2"/>
     </row>
-    <row r="567" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" ht="14.25" customHeight="1">
       <c r="F567" s="2"/>
     </row>
-    <row r="568" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" ht="14.25" customHeight="1">
       <c r="F568" s="2"/>
     </row>
-    <row r="569" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" ht="14.25" customHeight="1">
       <c r="F569" s="2"/>
     </row>
-    <row r="570" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" ht="14.25" customHeight="1">
       <c r="F570" s="2"/>
     </row>
-    <row r="571" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" ht="14.25" customHeight="1">
       <c r="F571" s="2"/>
     </row>
-    <row r="572" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" ht="14.25" customHeight="1">
       <c r="F572" s="2"/>
     </row>
-    <row r="573" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" ht="14.25" customHeight="1">
       <c r="F573" s="2"/>
     </row>
-    <row r="574" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" ht="14.25" customHeight="1">
       <c r="F574" s="2"/>
     </row>
-    <row r="575" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" ht="14.25" customHeight="1">
       <c r="F575" s="2"/>
     </row>
-    <row r="576" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" ht="14.25" customHeight="1">
       <c r="F576" s="2"/>
     </row>
-    <row r="577" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" ht="14.25" customHeight="1">
       <c r="F577" s="2"/>
     </row>
-    <row r="578" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" ht="14.25" customHeight="1">
       <c r="F578" s="2"/>
     </row>
-    <row r="579" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" ht="14.25" customHeight="1">
       <c r="F579" s="2"/>
     </row>
-    <row r="580" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" ht="14.25" customHeight="1">
       <c r="F580" s="2"/>
     </row>
-    <row r="581" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" ht="14.25" customHeight="1">
       <c r="F581" s="2"/>
     </row>
-    <row r="582" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" ht="14.25" customHeight="1">
       <c r="F582" s="2"/>
     </row>
-    <row r="583" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" ht="14.25" customHeight="1">
       <c r="F583" s="2"/>
     </row>
-    <row r="584" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" ht="14.25" customHeight="1">
       <c r="F584" s="2"/>
     </row>
-    <row r="585" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" ht="14.25" customHeight="1">
       <c r="F585" s="2"/>
     </row>
-    <row r="586" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" ht="14.25" customHeight="1">
       <c r="F586" s="2"/>
     </row>
-    <row r="587" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" ht="14.25" customHeight="1">
       <c r="F587" s="2"/>
     </row>
-    <row r="588" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" ht="14.25" customHeight="1">
       <c r="F588" s="2"/>
     </row>
-    <row r="589" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" ht="14.25" customHeight="1">
       <c r="F589" s="2"/>
     </row>
-    <row r="590" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" ht="14.25" customHeight="1">
       <c r="F590" s="2"/>
     </row>
-    <row r="591" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" ht="14.25" customHeight="1">
       <c r="F591" s="2"/>
     </row>
-    <row r="592" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" ht="14.25" customHeight="1">
       <c r="F592" s="2"/>
     </row>
-    <row r="593" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" ht="14.25" customHeight="1">
       <c r="F593" s="2"/>
     </row>
-    <row r="594" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" ht="14.25" customHeight="1">
       <c r="F594" s="2"/>
     </row>
-    <row r="595" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" ht="14.25" customHeight="1">
       <c r="F595" s="2"/>
     </row>
-    <row r="596" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" ht="14.25" customHeight="1">
       <c r="F596" s="2"/>
     </row>
-    <row r="597" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" ht="14.25" customHeight="1">
       <c r="F597" s="2"/>
     </row>
-    <row r="598" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" ht="14.25" customHeight="1">
       <c r="F598" s="2"/>
     </row>
-    <row r="599" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" ht="14.25" customHeight="1">
       <c r="F599" s="2"/>
     </row>
-    <row r="600" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" ht="14.25" customHeight="1">
       <c r="F600" s="2"/>
     </row>
-    <row r="601" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" ht="14.25" customHeight="1">
       <c r="F601" s="2"/>
     </row>
-    <row r="602" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" ht="14.25" customHeight="1">
       <c r="F602" s="2"/>
     </row>
-    <row r="603" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" ht="14.25" customHeight="1">
       <c r="F603" s="2"/>
     </row>
-    <row r="604" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" ht="14.25" customHeight="1">
       <c r="F604" s="2"/>
     </row>
-    <row r="605" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" ht="14.25" customHeight="1">
       <c r="F605" s="2"/>
     </row>
-    <row r="606" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" ht="14.25" customHeight="1">
       <c r="F606" s="2"/>
     </row>
-    <row r="607" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" ht="14.25" customHeight="1">
       <c r="F607" s="2"/>
     </row>
-    <row r="608" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" ht="14.25" customHeight="1">
       <c r="F608" s="2"/>
     </row>
-    <row r="609" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" ht="14.25" customHeight="1">
       <c r="F609" s="2"/>
     </row>
-    <row r="610" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" ht="14.25" customHeight="1">
       <c r="F610" s="2"/>
     </row>
-    <row r="611" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" ht="14.25" customHeight="1">
       <c r="F611" s="2"/>
     </row>
-    <row r="612" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" ht="14.25" customHeight="1">
       <c r="F612" s="2"/>
     </row>
-    <row r="613" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" ht="14.25" customHeight="1">
       <c r="F613" s="2"/>
     </row>
-    <row r="614" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" ht="14.25" customHeight="1">
       <c r="F614" s="2"/>
     </row>
-    <row r="615" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" ht="14.25" customHeight="1">
       <c r="F615" s="2"/>
     </row>
-    <row r="616" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" ht="14.25" customHeight="1">
       <c r="F616" s="2"/>
     </row>
-    <row r="617" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" ht="14.25" customHeight="1">
       <c r="F617" s="2"/>
     </row>
-    <row r="618" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" ht="14.25" customHeight="1">
       <c r="F618" s="2"/>
     </row>
-    <row r="619" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" ht="14.25" customHeight="1">
       <c r="F619" s="2"/>
     </row>
-    <row r="620" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" ht="14.25" customHeight="1">
       <c r="F620" s="2"/>
     </row>
-    <row r="621" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" ht="14.25" customHeight="1">
       <c r="F621" s="2"/>
     </row>
-    <row r="622" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" ht="14.25" customHeight="1">
       <c r="F622" s="2"/>
     </row>
-    <row r="623" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" ht="14.25" customHeight="1">
       <c r="F623" s="2"/>
     </row>
-    <row r="624" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" ht="14.25" customHeight="1">
       <c r="F624" s="2"/>
     </row>
-    <row r="625" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" ht="14.25" customHeight="1">
       <c r="F625" s="2"/>
     </row>
-    <row r="626" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" ht="14.25" customHeight="1">
       <c r="F626" s="2"/>
     </row>
-    <row r="627" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" ht="14.25" customHeight="1">
       <c r="F627" s="2"/>
     </row>
-    <row r="628" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" ht="14.25" customHeight="1">
       <c r="F628" s="2"/>
     </row>
-    <row r="629" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" ht="14.25" customHeight="1">
       <c r="F629" s="2"/>
     </row>
-    <row r="630" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" ht="14.25" customHeight="1">
       <c r="F630" s="2"/>
     </row>
-    <row r="631" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" ht="14.25" customHeight="1">
       <c r="F631" s="2"/>
     </row>
-    <row r="632" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" ht="14.25" customHeight="1">
       <c r="F632" s="2"/>
     </row>
-    <row r="633" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" ht="14.25" customHeight="1">
       <c r="F633" s="2"/>
     </row>
-    <row r="634" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" ht="14.25" customHeight="1">
       <c r="F634" s="2"/>
     </row>
-    <row r="635" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" ht="14.25" customHeight="1">
       <c r="F635" s="2"/>
     </row>
-    <row r="636" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" ht="14.25" customHeight="1">
       <c r="F636" s="2"/>
     </row>
-    <row r="637" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" ht="14.25" customHeight="1">
       <c r="F637" s="2"/>
     </row>
-    <row r="638" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" ht="14.25" customHeight="1">
       <c r="F638" s="2"/>
     </row>
-    <row r="639" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" ht="14.25" customHeight="1">
       <c r="F639" s="2"/>
     </row>
-    <row r="640" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" ht="14.25" customHeight="1">
       <c r="F640" s="2"/>
     </row>
-    <row r="641" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" ht="14.25" customHeight="1">
       <c r="F641" s="2"/>
     </row>
-    <row r="642" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" ht="14.25" customHeight="1">
       <c r="F642" s="2"/>
     </row>
-    <row r="643" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" ht="14.25" customHeight="1">
       <c r="F643" s="2"/>
     </row>
-    <row r="644" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" ht="14.25" customHeight="1">
       <c r="F644" s="2"/>
     </row>
-    <row r="645" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" ht="14.25" customHeight="1">
       <c r="F645" s="2"/>
     </row>
-    <row r="646" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" ht="14.25" customHeight="1">
       <c r="F646" s="2"/>
     </row>
-    <row r="647" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" ht="14.25" customHeight="1">
       <c r="F647" s="2"/>
     </row>
-    <row r="648" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" ht="14.25" customHeight="1">
       <c r="F648" s="2"/>
     </row>
-    <row r="649" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" ht="14.25" customHeight="1">
       <c r="F649" s="2"/>
     </row>
-    <row r="650" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" ht="14.25" customHeight="1">
       <c r="F650" s="2"/>
     </row>
-    <row r="651" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" ht="14.25" customHeight="1">
       <c r="F651" s="2"/>
     </row>
-    <row r="652" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" ht="14.25" customHeight="1">
       <c r="F652" s="2"/>
     </row>
-    <row r="653" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" ht="14.25" customHeight="1">
       <c r="F653" s="2"/>
     </row>
-    <row r="654" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" ht="14.25" customHeight="1">
       <c r="F654" s="2"/>
     </row>
-    <row r="655" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" ht="14.25" customHeight="1">
       <c r="F655" s="2"/>
     </row>
-    <row r="656" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" ht="14.25" customHeight="1">
       <c r="F656" s="2"/>
     </row>
-    <row r="657" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" ht="14.25" customHeight="1">
       <c r="F657" s="2"/>
     </row>
-    <row r="658" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" ht="14.25" customHeight="1">
       <c r="F658" s="2"/>
     </row>
-    <row r="659" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" ht="14.25" customHeight="1">
       <c r="F659" s="2"/>
     </row>
-    <row r="660" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" ht="14.25" customHeight="1">
       <c r="F660" s="2"/>
     </row>
-    <row r="661" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" ht="14.25" customHeight="1">
       <c r="F661" s="2"/>
     </row>
-    <row r="662" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" ht="14.25" customHeight="1">
       <c r="F662" s="2"/>
     </row>
-    <row r="663" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" ht="14.25" customHeight="1">
       <c r="F663" s="2"/>
     </row>
-    <row r="664" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" ht="14.25" customHeight="1">
       <c r="F664" s="2"/>
     </row>
-    <row r="665" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" ht="14.25" customHeight="1">
       <c r="F665" s="2"/>
     </row>
-    <row r="666" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" ht="14.25" customHeight="1">
       <c r="F666" s="2"/>
     </row>
-    <row r="667" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" ht="14.25" customHeight="1">
       <c r="F667" s="2"/>
     </row>
-    <row r="668" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" ht="14.25" customHeight="1">
       <c r="F668" s="2"/>
     </row>
-    <row r="669" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" ht="14.25" customHeight="1">
       <c r="F669" s="2"/>
     </row>
-    <row r="670" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" ht="14.25" customHeight="1">
       <c r="F670" s="2"/>
     </row>
-    <row r="671" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" ht="14.25" customHeight="1">
       <c r="F671" s="2"/>
     </row>
-    <row r="672" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" ht="14.25" customHeight="1">
       <c r="F672" s="2"/>
     </row>
-    <row r="673" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" ht="14.25" customHeight="1">
       <c r="F673" s="2"/>
     </row>
-    <row r="674" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" ht="14.25" customHeight="1">
       <c r="F674" s="2"/>
     </row>
-    <row r="675" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" ht="14.25" customHeight="1">
       <c r="F675" s="2"/>
     </row>
-    <row r="676" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" ht="14.25" customHeight="1">
       <c r="F676" s="2"/>
     </row>
-    <row r="677" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" ht="14.25" customHeight="1">
       <c r="F677" s="2"/>
     </row>
-    <row r="678" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" ht="14.25" customHeight="1">
       <c r="F678" s="2"/>
     </row>
-    <row r="679" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" ht="14.25" customHeight="1">
       <c r="F679" s="2"/>
     </row>
-    <row r="680" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" ht="14.25" customHeight="1">
       <c r="F680" s="2"/>
     </row>
-    <row r="681" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" ht="14.25" customHeight="1">
       <c r="F681" s="2"/>
     </row>
-    <row r="682" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" ht="14.25" customHeight="1">
       <c r="F682" s="2"/>
     </row>
-    <row r="683" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" ht="14.25" customHeight="1">
       <c r="F683" s="2"/>
     </row>
-    <row r="684" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" ht="14.25" customHeight="1">
       <c r="F684" s="2"/>
     </row>
-    <row r="685" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" ht="14.25" customHeight="1">
       <c r="F685" s="2"/>
     </row>
-    <row r="686" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" ht="14.25" customHeight="1">
       <c r="F686" s="2"/>
     </row>
-    <row r="687" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" ht="14.25" customHeight="1">
       <c r="F687" s="2"/>
     </row>
-    <row r="688" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" ht="14.25" customHeight="1">
       <c r="F688" s="2"/>
     </row>
-    <row r="689" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" ht="14.25" customHeight="1">
       <c r="F689" s="2"/>
     </row>
-    <row r="690" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" ht="14.25" customHeight="1">
       <c r="F690" s="2"/>
     </row>
-    <row r="691" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" ht="14.25" customHeight="1">
       <c r="F691" s="2"/>
     </row>
-    <row r="692" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" ht="14.25" customHeight="1">
       <c r="F692" s="2"/>
     </row>
-    <row r="693" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" ht="14.25" customHeight="1">
       <c r="F693" s="2"/>
     </row>
-    <row r="694" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" ht="14.25" customHeight="1">
       <c r="F694" s="2"/>
     </row>
-    <row r="695" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" ht="14.25" customHeight="1">
       <c r="F695" s="2"/>
     </row>
-    <row r="696" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" ht="14.25" customHeight="1">
       <c r="F696" s="2"/>
     </row>
-    <row r="697" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" ht="14.25" customHeight="1">
       <c r="F697" s="2"/>
     </row>
-    <row r="698" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" ht="14.25" customHeight="1">
       <c r="F698" s="2"/>
     </row>
-    <row r="699" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" ht="14.25" customHeight="1">
       <c r="F699" s="2"/>
     </row>
-    <row r="700" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" ht="14.25" customHeight="1">
       <c r="F700" s="2"/>
     </row>
-    <row r="701" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" ht="14.25" customHeight="1">
       <c r="F701" s="2"/>
     </row>
-    <row r="702" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" ht="14.25" customHeight="1">
       <c r="F702" s="2"/>
     </row>
-    <row r="703" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" ht="14.25" customHeight="1">
       <c r="F703" s="2"/>
     </row>
-    <row r="704" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" ht="14.25" customHeight="1">
       <c r="F704" s="2"/>
     </row>
-    <row r="705" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" ht="14.25" customHeight="1">
       <c r="F705" s="2"/>
     </row>
-    <row r="706" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" ht="14.25" customHeight="1">
       <c r="F706" s="2"/>
     </row>
-    <row r="707" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" ht="14.25" customHeight="1">
       <c r="F707" s="2"/>
     </row>
-    <row r="708" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" ht="14.25" customHeight="1">
       <c r="F708" s="2"/>
     </row>
-    <row r="709" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" ht="14.25" customHeight="1">
       <c r="F709" s="2"/>
     </row>
-    <row r="710" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" ht="14.25" customHeight="1">
       <c r="F710" s="2"/>
     </row>
-    <row r="711" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" ht="14.25" customHeight="1">
       <c r="F711" s="2"/>
     </row>
-    <row r="712" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" ht="14.25" customHeight="1">
       <c r="F712" s="2"/>
     </row>
-    <row r="713" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" ht="14.25" customHeight="1">
       <c r="F713" s="2"/>
     </row>
-    <row r="714" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" ht="14.25" customHeight="1">
       <c r="F714" s="2"/>
     </row>
-    <row r="715" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" ht="14.25" customHeight="1">
       <c r="F715" s="2"/>
     </row>
-    <row r="716" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" ht="14.25" customHeight="1">
       <c r="F716" s="2"/>
     </row>
-    <row r="717" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" ht="14.25" customHeight="1">
       <c r="F717" s="2"/>
     </row>
-    <row r="718" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" ht="14.25" customHeight="1">
       <c r="F718" s="2"/>
     </row>
-    <row r="719" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" ht="14.25" customHeight="1">
       <c r="F719" s="2"/>
     </row>
-    <row r="720" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" ht="14.25" customHeight="1">
       <c r="F720" s="2"/>
     </row>
-    <row r="721" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" ht="14.25" customHeight="1">
       <c r="F721" s="2"/>
     </row>
-    <row r="722" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" ht="14.25" customHeight="1">
       <c r="F722" s="2"/>
     </row>
-    <row r="723" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" ht="14.25" customHeight="1">
       <c r="F723" s="2"/>
     </row>
-    <row r="724" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" ht="14.25" customHeight="1">
       <c r="F724" s="2"/>
     </row>
-    <row r="725" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" ht="14.25" customHeight="1">
       <c r="F725" s="2"/>
     </row>
-    <row r="726" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" ht="14.25" customHeight="1">
       <c r="F726" s="2"/>
     </row>
-    <row r="727" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" ht="14.25" customHeight="1">
       <c r="F727" s="2"/>
     </row>
-    <row r="728" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" ht="14.25" customHeight="1">
       <c r="F728" s="2"/>
     </row>
-    <row r="729" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" ht="14.25" customHeight="1">
       <c r="F729" s="2"/>
     </row>
-    <row r="730" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" ht="14.25" customHeight="1">
       <c r="F730" s="2"/>
     </row>
-    <row r="731" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" ht="14.25" customHeight="1">
       <c r="F731" s="2"/>
     </row>
-    <row r="732" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" ht="14.25" customHeight="1">
       <c r="F732" s="2"/>
     </row>
-    <row r="733" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" ht="14.25" customHeight="1">
       <c r="F733" s="2"/>
     </row>
-    <row r="734" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" ht="14.25" customHeight="1">
       <c r="F734" s="2"/>
     </row>
-    <row r="735" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" ht="14.25" customHeight="1">
       <c r="F735" s="2"/>
     </row>
-    <row r="736" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" ht="14.25" customHeight="1">
       <c r="F736" s="2"/>
     </row>
-    <row r="737" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" ht="14.25" customHeight="1">
       <c r="F737" s="2"/>
     </row>
-    <row r="738" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" ht="14.25" customHeight="1">
       <c r="F738" s="2"/>
     </row>
-    <row r="739" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" ht="14.25" customHeight="1">
       <c r="F739" s="2"/>
     </row>
-    <row r="740" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" ht="14.25" customHeight="1">
       <c r="F740" s="2"/>
     </row>
-    <row r="741" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" ht="14.25" customHeight="1">
       <c r="F741" s="2"/>
     </row>
-    <row r="742" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" ht="14.25" customHeight="1">
       <c r="F742" s="2"/>
     </row>
-    <row r="743" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" ht="14.25" customHeight="1">
       <c r="F743" s="2"/>
     </row>
-    <row r="744" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" ht="14.25" customHeight="1">
       <c r="F744" s="2"/>
     </row>
-    <row r="745" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" ht="14.25" customHeight="1">
       <c r="F745" s="2"/>
     </row>
-    <row r="746" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" ht="14.25" customHeight="1">
       <c r="F746" s="2"/>
     </row>
-    <row r="747" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" ht="14.25" customHeight="1">
       <c r="F747" s="2"/>
     </row>
-    <row r="748" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" ht="14.25" customHeight="1">
       <c r="F748" s="2"/>
     </row>
-    <row r="749" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" ht="14.25" customHeight="1">
       <c r="F749" s="2"/>
     </row>
-    <row r="750" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" ht="14.25" customHeight="1">
       <c r="F750" s="2"/>
     </row>
-    <row r="751" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" ht="14.25" customHeight="1">
       <c r="F751" s="2"/>
     </row>
-    <row r="752" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" ht="14.25" customHeight="1">
       <c r="F752" s="2"/>
     </row>
-    <row r="753" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" ht="14.25" customHeight="1">
       <c r="F753" s="2"/>
     </row>
-    <row r="754" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" ht="14.25" customHeight="1">
       <c r="F754" s="2"/>
     </row>
-    <row r="755" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" ht="14.25" customHeight="1">
       <c r="F755" s="2"/>
     </row>
-    <row r="756" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" ht="14.25" customHeight="1">
       <c r="F756" s="2"/>
     </row>
-    <row r="757" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" ht="14.25" customHeight="1">
       <c r="F757" s="2"/>
     </row>
-    <row r="758" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" ht="14.25" customHeight="1">
       <c r="F758" s="2"/>
     </row>
-    <row r="759" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" ht="14.25" customHeight="1">
       <c r="F759" s="2"/>
     </row>
-    <row r="760" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" ht="14.25" customHeight="1">
       <c r="F760" s="2"/>
     </row>
-    <row r="761" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" ht="14.25" customHeight="1">
       <c r="F761" s="2"/>
     </row>
-    <row r="762" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" ht="14.25" customHeight="1">
       <c r="F762" s="2"/>
     </row>
-    <row r="763" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" ht="14.25" customHeight="1">
       <c r="F763" s="2"/>
     </row>
-    <row r="764" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" ht="14.25" customHeight="1">
       <c r="F764" s="2"/>
     </row>
-    <row r="765" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" ht="14.25" customHeight="1">
       <c r="F765" s="2"/>
     </row>
-    <row r="766" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" ht="14.25" customHeight="1">
       <c r="F766" s="2"/>
     </row>
-    <row r="767" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" ht="14.25" customHeight="1">
       <c r="F767" s="2"/>
     </row>
-    <row r="768" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" ht="14.25" customHeight="1">
       <c r="F768" s="2"/>
     </row>
-    <row r="769" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" ht="14.25" customHeight="1">
       <c r="F769" s="2"/>
     </row>
-    <row r="770" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" ht="14.25" customHeight="1">
       <c r="F770" s="2"/>
     </row>
-    <row r="771" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" ht="14.25" customHeight="1">
       <c r="F771" s="2"/>
     </row>
-    <row r="772" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" ht="14.25" customHeight="1">
       <c r="F772" s="2"/>
     </row>
-    <row r="773" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" ht="14.25" customHeight="1">
       <c r="F773" s="2"/>
     </row>
-    <row r="774" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" ht="14.25" customHeight="1">
       <c r="F774" s="2"/>
     </row>
-    <row r="775" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" ht="14.25" customHeight="1">
       <c r="F775" s="2"/>
     </row>
-    <row r="776" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" ht="14.25" customHeight="1">
       <c r="F776" s="2"/>
     </row>
-    <row r="777" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" ht="14.25" customHeight="1">
       <c r="F777" s="2"/>
     </row>
-    <row r="778" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" ht="14.25" customHeight="1">
       <c r="F778" s="2"/>
     </row>
-    <row r="779" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" ht="14.25" customHeight="1">
       <c r="F779" s="2"/>
     </row>
-    <row r="780" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" ht="14.25" customHeight="1">
       <c r="F780" s="2"/>
     </row>
-    <row r="781" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" ht="14.25" customHeight="1">
       <c r="F781" s="2"/>
     </row>
-    <row r="782" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" ht="14.25" customHeight="1">
       <c r="F782" s="2"/>
     </row>
-    <row r="783" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" ht="14.25" customHeight="1">
       <c r="F783" s="2"/>
     </row>
-    <row r="784" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" ht="14.25" customHeight="1">
       <c r="F784" s="2"/>
     </row>
-    <row r="785" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" ht="14.25" customHeight="1">
       <c r="F785" s="2"/>
     </row>
-    <row r="786" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" ht="14.25" customHeight="1">
       <c r="F786" s="2"/>
     </row>
-    <row r="787" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" ht="14.25" customHeight="1">
       <c r="F787" s="2"/>
     </row>
-    <row r="788" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" ht="14.25" customHeight="1">
       <c r="F788" s="2"/>
     </row>
-    <row r="789" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" ht="14.25" customHeight="1">
       <c r="F789" s="2"/>
     </row>
-    <row r="790" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" ht="14.25" customHeight="1">
       <c r="F790" s="2"/>
     </row>
-    <row r="791" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" ht="14.25" customHeight="1">
       <c r="F791" s="2"/>
     </row>
-    <row r="792" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" ht="14.25" customHeight="1">
       <c r="F792" s="2"/>
     </row>
-    <row r="793" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" ht="14.25" customHeight="1">
       <c r="F793" s="2"/>
     </row>
-    <row r="794" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" ht="14.25" customHeight="1">
       <c r="F794" s="2"/>
     </row>
-    <row r="795" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" ht="14.25" customHeight="1">
       <c r="F795" s="2"/>
     </row>
-    <row r="796" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" ht="14.25" customHeight="1">
       <c r="F796" s="2"/>
     </row>
-    <row r="797" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" ht="14.25" customHeight="1">
       <c r="F797" s="2"/>
     </row>
-    <row r="798" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" ht="14.25" customHeight="1">
       <c r="F798" s="2"/>
     </row>
-    <row r="799" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" ht="14.25" customHeight="1">
       <c r="F799" s="2"/>
     </row>
-    <row r="800" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" ht="14.25" customHeight="1">
       <c r="F800" s="2"/>
     </row>
-    <row r="801" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" ht="14.25" customHeight="1">
       <c r="F801" s="2"/>
     </row>
-    <row r="802" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" ht="14.25" customHeight="1">
       <c r="F802" s="2"/>
     </row>
-    <row r="803" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" ht="14.25" customHeight="1">
       <c r="F803" s="2"/>
     </row>
-    <row r="804" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" ht="14.25" customHeight="1">
       <c r="F804" s="2"/>
     </row>
-    <row r="805" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" ht="14.25" customHeight="1">
       <c r="F805" s="2"/>
     </row>
-    <row r="806" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" ht="14.25" customHeight="1">
       <c r="F806" s="2"/>
     </row>
-    <row r="807" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" ht="14.25" customHeight="1">
       <c r="F807" s="2"/>
     </row>
-    <row r="808" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" ht="14.25" customHeight="1">
       <c r="F808" s="2"/>
     </row>
-    <row r="809" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" ht="14.25" customHeight="1">
       <c r="F809" s="2"/>
     </row>
-    <row r="810" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" ht="14.25" customHeight="1">
       <c r="F810" s="2"/>
     </row>
-    <row r="811" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" ht="14.25" customHeight="1">
       <c r="F811" s="2"/>
     </row>
-    <row r="812" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" ht="14.25" customHeight="1">
       <c r="F812" s="2"/>
     </row>
-    <row r="813" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" ht="14.25" customHeight="1">
       <c r="F813" s="2"/>
     </row>
-    <row r="814" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" ht="14.25" customHeight="1">
       <c r="F814" s="2"/>
     </row>
-    <row r="815" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" ht="14.25" customHeight="1">
       <c r="F815" s="2"/>
     </row>
-    <row r="816" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" ht="14.25" customHeight="1">
       <c r="F816" s="2"/>
     </row>
-    <row r="817" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" ht="14.25" customHeight="1">
       <c r="F817" s="2"/>
     </row>
-    <row r="818" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" ht="14.25" customHeight="1">
       <c r="F818" s="2"/>
     </row>
-    <row r="819" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" ht="14.25" customHeight="1">
       <c r="F819" s="2"/>
     </row>
-    <row r="820" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" ht="14.25" customHeight="1">
       <c r="F820" s="2"/>
     </row>
-    <row r="821" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" ht="14.25" customHeight="1">
       <c r="F821" s="2"/>
     </row>
-    <row r="822" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" ht="14.25" customHeight="1">
       <c r="F822" s="2"/>
     </row>
-    <row r="823" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" ht="14.25" customHeight="1">
       <c r="F823" s="2"/>
     </row>
-    <row r="824" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" ht="14.25" customHeight="1">
       <c r="F824" s="2"/>
     </row>
-    <row r="825" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" ht="14.25" customHeight="1">
       <c r="F825" s="2"/>
     </row>
-    <row r="826" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" ht="14.25" customHeight="1">
       <c r="F826" s="2"/>
     </row>
-    <row r="827" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" ht="14.25" customHeight="1">
       <c r="F827" s="2"/>
     </row>
-    <row r="828" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" ht="14.25" customHeight="1">
       <c r="F828" s="2"/>
     </row>
-    <row r="829" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" ht="14.25" customHeight="1">
       <c r="F829" s="2"/>
     </row>
-    <row r="830" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" ht="14.25" customHeight="1">
       <c r="F830" s="2"/>
     </row>
-    <row r="831" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" ht="14.25" customHeight="1">
       <c r="F831" s="2"/>
     </row>
-    <row r="832" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" ht="14.25" customHeight="1">
       <c r="F832" s="2"/>
     </row>
-    <row r="833" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" ht="14.25" customHeight="1">
       <c r="F833" s="2"/>
     </row>
-    <row r="834" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" ht="14.25" customHeight="1">
       <c r="F834" s="2"/>
     </row>
-    <row r="835" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" ht="14.25" customHeight="1">
       <c r="F835" s="2"/>
     </row>
-    <row r="836" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" ht="14.25" customHeight="1">
       <c r="F836" s="2"/>
     </row>
-    <row r="837" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" ht="14.25" customHeight="1">
       <c r="F837" s="2"/>
     </row>
-    <row r="838" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" ht="14.25" customHeight="1">
       <c r="F838" s="2"/>
     </row>
-    <row r="839" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" ht="14.25" customHeight="1">
       <c r="F839" s="2"/>
     </row>
-    <row r="840" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" ht="14.25" customHeight="1">
       <c r="F840" s="2"/>
     </row>
-    <row r="841" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" ht="14.25" customHeight="1">
       <c r="F841" s="2"/>
     </row>
-    <row r="842" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" ht="14.25" customHeight="1">
       <c r="F842" s="2"/>
     </row>
-    <row r="843" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" ht="14.25" customHeight="1">
       <c r="F843" s="2"/>
     </row>
-    <row r="844" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" ht="14.25" customHeight="1">
       <c r="F844" s="2"/>
     </row>
-    <row r="845" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" ht="14.25" customHeight="1">
       <c r="F845" s="2"/>
     </row>
-    <row r="846" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" ht="14.25" customHeight="1">
       <c r="F846" s="2"/>
     </row>
-    <row r="847" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" ht="14.25" customHeight="1">
       <c r="F847" s="2"/>
     </row>
-    <row r="848" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" ht="14.25" customHeight="1">
       <c r="F848" s="2"/>
     </row>
-    <row r="849" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" ht="14.25" customHeight="1">
       <c r="F849" s="2"/>
     </row>
-    <row r="850" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" ht="14.25" customHeight="1">
       <c r="F850" s="2"/>
     </row>
-    <row r="851" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" ht="14.25" customHeight="1">
       <c r="F851" s="2"/>
     </row>
-    <row r="852" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" ht="14.25" customHeight="1">
       <c r="F852" s="2"/>
     </row>
-    <row r="853" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" ht="14.25" customHeight="1">
       <c r="F853" s="2"/>
     </row>
-    <row r="854" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" ht="14.25" customHeight="1">
       <c r="F854" s="2"/>
     </row>
-    <row r="855" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" ht="14.25" customHeight="1">
       <c r="F855" s="2"/>
     </row>
-    <row r="856" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" ht="14.25" customHeight="1">
       <c r="F856" s="2"/>
     </row>
-    <row r="857" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" ht="14.25" customHeight="1">
       <c r="F857" s="2"/>
     </row>
-    <row r="858" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" ht="14.25" customHeight="1">
       <c r="F858" s="2"/>
     </row>
-    <row r="859" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" ht="14.25" customHeight="1">
       <c r="F859" s="2"/>
     </row>
-    <row r="860" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" ht="14.25" customHeight="1">
       <c r="F860" s="2"/>
     </row>
-    <row r="861" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" ht="14.25" customHeight="1">
       <c r="F861" s="2"/>
     </row>
-    <row r="862" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" ht="14.25" customHeight="1">
       <c r="F862" s="2"/>
     </row>
-    <row r="863" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" ht="14.25" customHeight="1">
       <c r="F863" s="2"/>
     </row>
-    <row r="864" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" ht="14.25" customHeight="1">
       <c r="F864" s="2"/>
     </row>
-    <row r="865" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" ht="14.25" customHeight="1">
       <c r="F865" s="2"/>
     </row>
-    <row r="866" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" ht="14.25" customHeight="1">
       <c r="F866" s="2"/>
     </row>
-    <row r="867" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" ht="14.25" customHeight="1">
       <c r="F867" s="2"/>
     </row>
-    <row r="868" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" ht="14.25" customHeight="1">
       <c r="F868" s="2"/>
     </row>
-    <row r="869" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" ht="14.25" customHeight="1">
       <c r="F869" s="2"/>
     </row>
-    <row r="870" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" ht="14.25" customHeight="1">
       <c r="F870" s="2"/>
     </row>
-    <row r="871" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" ht="14.25" customHeight="1">
       <c r="F871" s="2"/>
     </row>
-    <row r="872" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" ht="14.25" customHeight="1">
       <c r="F872" s="2"/>
     </row>
-    <row r="873" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" ht="14.25" customHeight="1">
       <c r="F873" s="2"/>
     </row>
-    <row r="874" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" ht="14.25" customHeight="1">
       <c r="F874" s="2"/>
     </row>
-    <row r="875" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" ht="14.25" customHeight="1">
       <c r="F875" s="2"/>
     </row>
-    <row r="876" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" ht="14.25" customHeight="1">
       <c r="F876" s="2"/>
     </row>
-    <row r="877" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" ht="14.25" customHeight="1">
       <c r="F877" s="2"/>
     </row>
-    <row r="878" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" ht="14.25" customHeight="1">
       <c r="F878" s="2"/>
     </row>
-    <row r="879" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" ht="14.25" customHeight="1">
       <c r="F879" s="2"/>
     </row>
-    <row r="880" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" ht="14.25" customHeight="1">
       <c r="F880" s="2"/>
     </row>
-    <row r="881" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" ht="14.25" customHeight="1">
       <c r="F881" s="2"/>
     </row>
-    <row r="882" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" ht="14.25" customHeight="1">
       <c r="F882" s="2"/>
     </row>
-    <row r="883" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" ht="14.25" customHeight="1">
       <c r="F883" s="2"/>
     </row>
-    <row r="884" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" ht="14.25" customHeight="1">
       <c r="F884" s="2"/>
     </row>
-    <row r="885" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" ht="14.25" customHeight="1">
       <c r="F885" s="2"/>
     </row>
-    <row r="886" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" ht="14.25" customHeight="1">
       <c r="F886" s="2"/>
     </row>
-    <row r="887" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" ht="14.25" customHeight="1">
       <c r="F887" s="2"/>
     </row>
-    <row r="888" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" ht="14.25" customHeight="1">
       <c r="F888" s="2"/>
     </row>
-    <row r="889" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" ht="14.25" customHeight="1">
       <c r="F889" s="2"/>
     </row>
-    <row r="890" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" ht="14.25" customHeight="1">
       <c r="F890" s="2"/>
     </row>
-    <row r="891" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" ht="14.25" customHeight="1">
       <c r="F891" s="2"/>
     </row>
-    <row r="892" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" ht="14.25" customHeight="1">
       <c r="F892" s="2"/>
     </row>
-    <row r="893" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" ht="14.25" customHeight="1">
       <c r="F893" s="2"/>
     </row>
-    <row r="894" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" ht="14.25" customHeight="1">
       <c r="F894" s="2"/>
     </row>
-    <row r="895" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" ht="14.25" customHeight="1">
       <c r="F895" s="2"/>
     </row>
-    <row r="896" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" ht="14.25" customHeight="1">
       <c r="F896" s="2"/>
     </row>
-    <row r="897" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" ht="14.25" customHeight="1">
       <c r="F897" s="2"/>
     </row>
-    <row r="898" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" ht="14.25" customHeight="1">
       <c r="F898" s="2"/>
     </row>
-    <row r="899" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" ht="14.25" customHeight="1">
       <c r="F899" s="2"/>
     </row>
-    <row r="900" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" ht="14.25" customHeight="1">
       <c r="F900" s="2"/>
     </row>
-    <row r="901" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" ht="14.25" customHeight="1">
       <c r="F901" s="2"/>
     </row>
-    <row r="902" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" ht="14.25" customHeight="1">
       <c r="F902" s="2"/>
     </row>
-    <row r="903" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" ht="14.25" customHeight="1">
       <c r="F903" s="2"/>
     </row>
-    <row r="904" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" ht="14.25" customHeight="1">
       <c r="F904" s="2"/>
     </row>
-    <row r="905" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" ht="14.25" customHeight="1">
       <c r="F905" s="2"/>
     </row>
-    <row r="906" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" ht="14.25" customHeight="1">
       <c r="F906" s="2"/>
     </row>
-    <row r="907" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" ht="14.25" customHeight="1">
       <c r="F907" s="2"/>
     </row>
-    <row r="908" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" ht="14.25" customHeight="1">
       <c r="F908" s="2"/>
     </row>
-    <row r="909" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" ht="14.25" customHeight="1">
       <c r="F909" s="2"/>
     </row>
-    <row r="910" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" ht="14.25" customHeight="1">
       <c r="F910" s="2"/>
     </row>
-    <row r="911" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" ht="14.25" customHeight="1">
       <c r="F911" s="2"/>
     </row>
-    <row r="912" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" ht="14.25" customHeight="1">
       <c r="F912" s="2"/>
     </row>
-    <row r="913" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" ht="14.25" customHeight="1">
       <c r="F913" s="2"/>
     </row>
-    <row r="914" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" ht="14.25" customHeight="1">
       <c r="F914" s="2"/>
     </row>
-    <row r="915" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" ht="14.25" customHeight="1">
       <c r="F915" s="2"/>
     </row>
-    <row r="916" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" ht="14.25" customHeight="1">
       <c r="F916" s="2"/>
     </row>
-    <row r="917" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" ht="14.25" customHeight="1">
       <c r="F917" s="2"/>
     </row>
-    <row r="918" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" ht="14.25" customHeight="1">
       <c r="F918" s="2"/>
     </row>
-    <row r="919" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" ht="14.25" customHeight="1">
       <c r="F919" s="2"/>
     </row>
-    <row r="920" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" ht="14.25" customHeight="1">
       <c r="F920" s="2"/>
     </row>
-    <row r="921" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" ht="14.25" customHeight="1">
       <c r="F921" s="2"/>
     </row>
-    <row r="922" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" ht="14.25" customHeight="1">
       <c r="F922" s="2"/>
     </row>
-    <row r="923" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" ht="14.25" customHeight="1">
       <c r="F923" s="2"/>
     </row>
-    <row r="924" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" ht="14.25" customHeight="1">
       <c r="F924" s="2"/>
     </row>
-    <row r="925" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" ht="14.25" customHeight="1">
       <c r="F925" s="2"/>
     </row>
-    <row r="926" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" ht="14.25" customHeight="1">
       <c r="F926" s="2"/>
     </row>
-    <row r="927" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" ht="14.25" customHeight="1">
       <c r="F927" s="2"/>
     </row>
-    <row r="928" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" ht="14.25" customHeight="1">
       <c r="F928" s="2"/>
     </row>
-    <row r="929" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" ht="14.25" customHeight="1">
       <c r="F929" s="2"/>
     </row>
-    <row r="930" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" ht="14.25" customHeight="1">
       <c r="F930" s="2"/>
     </row>
-    <row r="931" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" ht="14.25" customHeight="1">
       <c r="F931" s="2"/>
     </row>
-    <row r="932" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" ht="14.25" customHeight="1">
       <c r="F932" s="2"/>
     </row>
-    <row r="933" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" ht="14.25" customHeight="1">
       <c r="F933" s="2"/>
     </row>
-    <row r="934" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" ht="14.25" customHeight="1">
       <c r="F934" s="2"/>
     </row>
-    <row r="935" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" ht="14.25" customHeight="1">
       <c r="F935" s="2"/>
     </row>
-    <row r="936" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" ht="14.25" customHeight="1">
       <c r="F936" s="2"/>
     </row>
-    <row r="937" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" ht="14.25" customHeight="1">
       <c r="F937" s="2"/>
     </row>
-    <row r="938" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" ht="14.25" customHeight="1">
       <c r="F938" s="2"/>
     </row>
-    <row r="939" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" ht="14.25" customHeight="1">
       <c r="F939" s="2"/>
     </row>
-    <row r="940" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" ht="14.25" customHeight="1">
       <c r="F940" s="2"/>
     </row>
-    <row r="941" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" ht="14.25" customHeight="1">
       <c r="F941" s="2"/>
     </row>
-    <row r="942" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" ht="14.25" customHeight="1">
       <c r="F942" s="2"/>
     </row>
-    <row r="943" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" ht="14.25" customHeight="1">
       <c r="F943" s="2"/>
     </row>
-    <row r="944" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" ht="14.25" customHeight="1">
       <c r="F944" s="2"/>
     </row>
-    <row r="945" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" ht="14.25" customHeight="1">
       <c r="F945" s="2"/>
     </row>
-    <row r="946" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" ht="14.25" customHeight="1">
       <c r="F946" s="2"/>
     </row>
-    <row r="947" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" ht="14.25" customHeight="1">
       <c r="F947" s="2"/>
     </row>
-    <row r="948" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" ht="14.25" customHeight="1">
       <c r="F948" s="2"/>
     </row>
-    <row r="949" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" ht="14.25" customHeight="1">
       <c r="F949" s="2"/>
     </row>
-    <row r="950" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" ht="14.25" customHeight="1">
       <c r="F950" s="2"/>
     </row>
-    <row r="951" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" ht="14.25" customHeight="1">
       <c r="F951" s="2"/>
     </row>
-    <row r="952" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" ht="14.25" customHeight="1">
       <c r="F952" s="2"/>
     </row>
-    <row r="953" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" ht="14.25" customHeight="1">
       <c r="F953" s="2"/>
     </row>
-    <row r="954" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" ht="14.25" customHeight="1">
       <c r="F954" s="2"/>
     </row>
-    <row r="955" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" ht="14.25" customHeight="1">
       <c r="F955" s="2"/>
     </row>
-    <row r="956" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" ht="14.25" customHeight="1">
       <c r="F956" s="2"/>
     </row>
-    <row r="957" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" ht="14.25" customHeight="1">
       <c r="F957" s="2"/>
     </row>
-    <row r="958" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" ht="14.25" customHeight="1">
       <c r="F958" s="2"/>
     </row>
-    <row r="959" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" ht="14.25" customHeight="1">
       <c r="F959" s="2"/>
     </row>
-    <row r="960" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" ht="14.25" customHeight="1">
       <c r="F960" s="2"/>
     </row>
-    <row r="961" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" ht="14.25" customHeight="1">
       <c r="F961" s="2"/>
     </row>
-    <row r="962" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" ht="14.25" customHeight="1">
       <c r="F962" s="2"/>
     </row>
-    <row r="963" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" ht="14.25" customHeight="1">
       <c r="F963" s="2"/>
     </row>
-    <row r="964" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" ht="14.25" customHeight="1">
       <c r="F964" s="2"/>
     </row>
-    <row r="965" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" ht="14.25" customHeight="1">
       <c r="F965" s="2"/>
     </row>
-    <row r="966" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" ht="14.25" customHeight="1">
       <c r="F966" s="2"/>
     </row>
-    <row r="967" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" ht="14.25" customHeight="1">
       <c r="F967" s="2"/>
     </row>
-    <row r="968" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" ht="14.25" customHeight="1">
       <c r="F968" s="2"/>
     </row>
-    <row r="969" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" ht="14.25" customHeight="1">
       <c r="F969" s="2"/>
     </row>
-    <row r="970" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" ht="14.25" customHeight="1">
       <c r="F970" s="2"/>
     </row>
-    <row r="971" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" ht="14.25" customHeight="1">
       <c r="F971" s="2"/>
     </row>
-    <row r="972" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" ht="14.25" customHeight="1">
       <c r="F972" s="2"/>
     </row>
-    <row r="973" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" ht="14.25" customHeight="1">
       <c r="F973" s="2"/>
     </row>
-    <row r="974" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" ht="14.25" customHeight="1">
       <c r="F974" s="2"/>
     </row>
-    <row r="975" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" ht="14.25" customHeight="1">
       <c r="F975" s="2"/>
     </row>
-    <row r="976" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" ht="14.25" customHeight="1">
       <c r="F976" s="2"/>
     </row>
-    <row r="977" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" ht="14.25" customHeight="1">
       <c r="F977" s="2"/>
     </row>
-    <row r="978" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" ht="14.25" customHeight="1">
       <c r="F978" s="2"/>
     </row>
-    <row r="979" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" ht="14.25" customHeight="1">
       <c r="F979" s="2"/>
     </row>
-    <row r="980" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" ht="14.25" customHeight="1">
       <c r="F980" s="2"/>
     </row>
-    <row r="981" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" ht="14.25" customHeight="1">
       <c r="F981" s="2"/>
     </row>
-    <row r="982" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" ht="14.25" customHeight="1">
       <c r="F982" s="2"/>
     </row>
-    <row r="983" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" ht="14.25" customHeight="1">
       <c r="F983" s="2"/>
     </row>
-    <row r="984" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" ht="14.25" customHeight="1">
       <c r="F984" s="2"/>
     </row>
-    <row r="985" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" ht="14.25" customHeight="1">
       <c r="F985" s="2"/>
     </row>
-    <row r="986" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" ht="14.25" customHeight="1">
       <c r="F986" s="2"/>
     </row>
-    <row r="987" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" ht="14.25" customHeight="1">
       <c r="F987" s="2"/>
     </row>
-    <row r="988" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" ht="14.25" customHeight="1">
       <c r="F988" s="2"/>
     </row>
-    <row r="989" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" ht="14.25" customHeight="1">
       <c r="F989" s="2"/>
     </row>
-    <row r="990" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" ht="14.25" customHeight="1">
       <c r="F990" s="2"/>
     </row>
-    <row r="991" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" ht="14.25" customHeight="1">
       <c r="F991" s="2"/>
     </row>
-    <row r="992" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" ht="14.25" customHeight="1">
       <c r="F992" s="2"/>
     </row>
-    <row r="993" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" ht="14.25" customHeight="1">
       <c r="F993" s="2"/>
     </row>
-    <row r="994" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" ht="14.25" customHeight="1">
       <c r="F994" s="2"/>
     </row>
-    <row r="995" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" ht="14.25" customHeight="1">
       <c r="F995" s="2"/>
     </row>
-    <row r="996" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" ht="14.25" customHeight="1">
       <c r="F996" s="2"/>
     </row>
-    <row r="997" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" ht="14.25" customHeight="1">
       <c r="F997" s="2"/>
     </row>
-    <row r="998" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" ht="14.25" customHeight="1">
       <c r="F998" s="2"/>
     </row>
-    <row r="999" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" ht="14.25" customHeight="1">
       <c r="F999" s="2"/>
     </row>
-    <row r="1000" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" ht="14.25" customHeight="1">
       <c r="F1000" s="2"/>
     </row>
-    <row r="1001" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1001" ht="14.25" customHeight="1">
       <c r="F1001" s="2"/>
     </row>
-    <row r="1002" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1002" ht="14.25" customHeight="1">
       <c r="F1002" s="2"/>
     </row>
-    <row r="1003" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1003" ht="14.25" customHeight="1">
       <c r="F1003" s="2"/>
     </row>
-    <row r="1004" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1004" ht="14.25" customHeight="1">
       <c r="F1004" s="2"/>
     </row>
-    <row r="1005" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1005" ht="14.25" customHeight="1">
       <c r="F1005" s="2"/>
     </row>
-    <row r="1006" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1006" ht="14.25" customHeight="1">
       <c r="F1006" s="2"/>
     </row>
-    <row r="1007" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1007" ht="14.25" customHeight="1">
       <c r="F1007" s="2"/>
     </row>
-    <row r="1008" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1008" ht="14.25" customHeight="1">
       <c r="F1008" s="2"/>
     </row>
-    <row r="1009" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1009" ht="14.25" customHeight="1">
       <c r="F1009" s="2"/>
     </row>
-    <row r="1010" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1010" ht="14.25" customHeight="1">
       <c r="F1010" s="2"/>
     </row>
-    <row r="1011" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1011" ht="14.25" customHeight="1">
       <c r="F1011" s="2"/>
     </row>
-    <row r="1012" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1012" ht="14.25" customHeight="1">
       <c r="F1012" s="2"/>
     </row>
-    <row r="1013" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1013" ht="14.25" customHeight="1">
       <c r="F1013" s="2"/>
     </row>
-    <row r="1014" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1014" ht="14.25" customHeight="1">
       <c r="F1014" s="2"/>
     </row>
-    <row r="1015" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1015" ht="14.25" customHeight="1">
       <c r="F1015" s="2"/>
     </row>
-    <row r="1016" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1016" ht="14.25" customHeight="1">
       <c r="F1016" s="2"/>
     </row>
-    <row r="1017" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1017" ht="14.25" customHeight="1">
       <c r="F1017" s="2"/>
     </row>
-    <row r="1018" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1018" ht="14.25" customHeight="1">
       <c r="F1018" s="2"/>
     </row>
-    <row r="1019" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1019" ht="14.25" customHeight="1">
       <c r="F1019" s="2"/>
     </row>
-    <row r="1020" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1020" ht="14.25" customHeight="1">
       <c r="F1020" s="2"/>
     </row>
-    <row r="1021" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1021" ht="14.25" customHeight="1">
       <c r="F1021" s="2"/>
     </row>
-    <row r="1022" spans="6:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1022" ht="14.25" customHeight="1">
       <c r="F1022" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>